--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_18_34.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_18_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1465326.137721373</v>
+        <v>1460792.48718978</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7510923.09042838</v>
+        <v>7510923.090428384</v>
       </c>
     </row>
     <row r="9">
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>238.683899315701</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1378,7 +1378,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>410.1968133282724</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -1387,10 +1387,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>286.6197530438301</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>5.758835338221843</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>86.80203596162595</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>34.35398087650749</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>346.3391791168841</v>
+        <v>346.3391791168843</v>
       </c>
       <c r="W11" t="n">
-        <v>379.9226978561831</v>
+        <v>379.9226978561833</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>396.6369638527372</v>
       </c>
       <c r="Y11" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1448,25 +1448,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>138.9000023092309</v>
       </c>
       <c r="C12" t="n">
-        <v>132.6551205385437</v>
+        <v>132.6551205385439</v>
       </c>
       <c r="D12" t="n">
-        <v>115.7281862028015</v>
+        <v>115.7281862028016</v>
       </c>
       <c r="E12" t="n">
-        <v>119.2878878475953</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>107.8702810193205</v>
+        <v>87.36840892842615</v>
       </c>
       <c r="G12" t="n">
-        <v>104.813694600883</v>
+        <v>104.8136946008831</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>59.35311653050266</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1499,25 +1499,25 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>86.35704260789379</v>
+        <v>86.35704260789393</v>
       </c>
       <c r="T12" t="n">
-        <v>153.288405331309</v>
+        <v>153.2884053313092</v>
       </c>
       <c r="U12" t="n">
-        <v>79.20514244362845</v>
+        <v>195.3045055848793</v>
       </c>
       <c r="V12" t="n">
-        <v>211.5744117368965</v>
+        <v>211.5744117368966</v>
       </c>
       <c r="W12" t="n">
-        <v>211.1008365810345</v>
+        <v>211.1008365810347</v>
       </c>
       <c r="X12" t="n">
-        <v>174.5627220424961</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>157.8079400398083</v>
+        <v>157.8079400398084</v>
       </c>
     </row>
     <row r="13">
@@ -1527,25 +1527,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>157.8996982303191</v>
+        <v>157.8996982303192</v>
       </c>
       <c r="E13" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>162.9848146305146</v>
+        <v>17.28423659171981</v>
       </c>
       <c r="G13" t="n">
-        <v>164.6502205165041</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>139.8635808156044</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,25 +1575,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>42.70872534962579</v>
+        <v>42.70872534962594</v>
       </c>
       <c r="S13" t="n">
-        <v>168.3611507780025</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>65.09678972068944</v>
+        <v>233.1895850495405</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>279.9195659803987</v>
       </c>
       <c r="V13" t="n">
-        <v>271.1468876098733</v>
+        <v>271.1468876098734</v>
       </c>
       <c r="W13" t="n">
-        <v>276.2789678462144</v>
+        <v>276.2789678462145</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>235.9604235189136</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1609,25 +1609,25 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>406.0233447798626</v>
+        <v>406.0233447798627</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>410.1968133282722</v>
+        <v>410.1968133282724</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>416.8201079258495</v>
       </c>
       <c r="G14" t="n">
-        <v>171.4890619840625</v>
+        <v>128.8328165761735</v>
       </c>
       <c r="H14" t="n">
-        <v>286.6197530438301</v>
+        <v>286.6197530438303</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>5.758835338221985</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1669,7 +1669,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1685,25 +1685,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>138.9000023092309</v>
       </c>
       <c r="C15" t="n">
-        <v>132.6551205385437</v>
+        <v>132.6551205385439</v>
       </c>
       <c r="D15" t="n">
-        <v>115.7281862028015</v>
+        <v>73.41279637252184</v>
       </c>
       <c r="E15" t="n">
-        <v>119.2878878475953</v>
+        <v>119.2878878475954</v>
       </c>
       <c r="F15" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>59.35311653050252</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1736,25 +1736,25 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>86.35704260789379</v>
+        <v>86.35704260789393</v>
       </c>
       <c r="T15" t="n">
-        <v>153.288405331309</v>
+        <v>153.2884053313092</v>
       </c>
       <c r="U15" t="n">
-        <v>124.6657205140086</v>
+        <v>195.3045055848793</v>
       </c>
       <c r="V15" t="n">
-        <v>211.5744117368965</v>
+        <v>211.5744117368966</v>
       </c>
       <c r="W15" t="n">
-        <v>211.1008365810345</v>
+        <v>211.1008365810347</v>
       </c>
       <c r="X15" t="n">
-        <v>174.5627220424961</v>
+        <v>174.5627220424963</v>
       </c>
       <c r="Y15" t="n">
-        <v>157.8079400398083</v>
+        <v>157.8079400398084</v>
       </c>
     </row>
     <row r="16">
@@ -1764,13 +1764,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>185.8227093301039</v>
+        <v>185.8227093301041</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1779,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.6502205165043</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>42.70872534962594</v>
       </c>
       <c r="S16" t="n">
-        <v>168.3611507780025</v>
+        <v>168.3611507780027</v>
       </c>
       <c r="T16" t="n">
-        <v>233.1895850495404</v>
+        <v>233.1895850495405</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>279.9195659803987</v>
       </c>
       <c r="V16" t="n">
-        <v>271.1468876098733</v>
+        <v>271.1468876098734</v>
       </c>
       <c r="W16" t="n">
-        <v>276.2789678462144</v>
+        <v>276.2789678462145</v>
       </c>
       <c r="X16" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>125.5922486292436</v>
+        <v>32.17385853194611</v>
       </c>
     </row>
     <row r="17">
@@ -1849,10 +1849,10 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>400.4192906078702</v>
       </c>
       <c r="E17" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -1861,10 +1861,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>286.6197530438301</v>
+        <v>286.6197530438303</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>5.758835338221985</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1900,19 +1900,19 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>131.8841373100806</v>
+        <v>254.3244409304081</v>
       </c>
       <c r="V17" t="n">
-        <v>346.3391791168841</v>
+        <v>244.6318288752919</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>379.9226978561833</v>
       </c>
       <c r="X17" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>396.9273063213908</v>
+        <v>396.927306321391</v>
       </c>
     </row>
     <row r="18">
@@ -1922,25 +1922,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>138.9000023092308</v>
+        <v>138.9000023092309</v>
       </c>
       <c r="C18" t="n">
-        <v>132.6551205385437</v>
+        <v>132.6551205385439</v>
       </c>
       <c r="D18" t="n">
-        <v>115.7281862028015</v>
+        <v>115.7281862028016</v>
       </c>
       <c r="E18" t="n">
-        <v>119.2878878475953</v>
+        <v>119.2878878475954</v>
       </c>
       <c r="F18" t="n">
-        <v>107.8702810193205</v>
+        <v>107.8702810193206</v>
       </c>
       <c r="G18" t="n">
-        <v>104.813694600883</v>
+        <v>104.8136946008831</v>
       </c>
       <c r="H18" t="n">
-        <v>59.35311653050252</v>
+        <v>59.35311653050307</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1973,25 +1973,25 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>86.35704260789379</v>
+        <v>86.35704260789393</v>
       </c>
       <c r="T18" t="n">
-        <v>153.288405331309</v>
+        <v>153.2884053313092</v>
       </c>
       <c r="U18" t="n">
-        <v>195.3045055848789</v>
+        <v>195.3045055848793</v>
       </c>
       <c r="V18" t="n">
-        <v>211.5744117368965</v>
+        <v>211.5744117368966</v>
       </c>
       <c r="W18" t="n">
-        <v>211.1008365810345</v>
+        <v>211.1008365810347</v>
       </c>
       <c r="X18" t="n">
-        <v>174.5627220424961</v>
+        <v>174.5627220424963</v>
       </c>
       <c r="Y18" t="n">
-        <v>157.8079400398083</v>
+        <v>157.8079400398084</v>
       </c>
     </row>
     <row r="19">
@@ -2001,16 +2001,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>185.8227093301041</v>
       </c>
       <c r="C19" t="n">
-        <v>79.24879823513969</v>
+        <v>169.3824387139008</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>118.6885291462944</v>
       </c>
       <c r="E19" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.28511935522955</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>42.70872534962579</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>168.3611507780025</v>
+        <v>168.3611507780027</v>
       </c>
       <c r="T19" t="n">
-        <v>233.1895850495404</v>
+        <v>233.1895850495405</v>
       </c>
       <c r="U19" t="n">
-        <v>279.9195659803985</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>271.1468876098733</v>
+        <v>271.1468876098734</v>
       </c>
       <c r="W19" t="n">
-        <v>276.2789678462144</v>
+        <v>276.2789678462145</v>
       </c>
       <c r="X19" t="n">
-        <v>235.9604235189134</v>
+        <v>235.9604235189136</v>
       </c>
       <c r="Y19" t="n">
-        <v>222.4883416251229</v>
+        <v>222.4883416251231</v>
       </c>
     </row>
     <row r="20">
@@ -2083,25 +2083,25 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>406.0233447798626</v>
+        <v>406.0233447798627</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>400.4192906078702</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>98.26514800684356</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>286.6197530438303</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>5.758835338221985</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>86.8020359616258</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>254.324440930408</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>379.9226978561831</v>
+        <v>76.21865902928344</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>396.6369638527372</v>
       </c>
       <c r="Y20" t="n">
-        <v>396.9273063213908</v>
+        <v>396.927306321391</v>
       </c>
     </row>
     <row r="21">
@@ -2159,25 +2159,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>138.9000023092308</v>
+        <v>138.9000023092309</v>
       </c>
       <c r="C21" t="n">
-        <v>132.6551205385437</v>
+        <v>132.6551205385439</v>
       </c>
       <c r="D21" t="n">
-        <v>115.7281862028015</v>
+        <v>115.7281862028016</v>
       </c>
       <c r="E21" t="n">
-        <v>119.2878878475953</v>
+        <v>119.2878878475954</v>
       </c>
       <c r="F21" t="n">
-        <v>107.8702810193234</v>
+        <v>107.8702810193206</v>
       </c>
       <c r="G21" t="n">
-        <v>104.813694600883</v>
+        <v>104.8136946008831</v>
       </c>
       <c r="H21" t="n">
-        <v>59.35311653050252</v>
+        <v>59.35311653050266</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2210,25 +2210,25 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>86.35704260789379</v>
+        <v>86.35704260789387</v>
       </c>
       <c r="T21" t="n">
-        <v>153.288405331309</v>
+        <v>153.2884053313092</v>
       </c>
       <c r="U21" t="n">
-        <v>195.3045055848791</v>
+        <v>195.3045055848794</v>
       </c>
       <c r="V21" t="n">
-        <v>211.5744117368965</v>
+        <v>211.5744117368966</v>
       </c>
       <c r="W21" t="n">
-        <v>211.1008365810345</v>
+        <v>211.1008365810347</v>
       </c>
       <c r="X21" t="n">
-        <v>174.5627220424961</v>
+        <v>174.5627220424963</v>
       </c>
       <c r="Y21" t="n">
-        <v>157.8079400398083</v>
+        <v>157.8079400398084</v>
       </c>
     </row>
     <row r="22">
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>185.8227093301039</v>
+        <v>185.8227093301041</v>
       </c>
       <c r="C22" t="n">
-        <v>52.72779588540254</v>
+        <v>169.3824387139008</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>157.8996982303192</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>159.3017069803639</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>162.9848146305148</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.6502205165043</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>139.8635808156044</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.28511935522955</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>42.70872534962579</v>
+        <v>42.70872534962594</v>
       </c>
       <c r="S22" t="n">
-        <v>168.3611507780025</v>
+        <v>168.3611507780027</v>
       </c>
       <c r="T22" t="n">
-        <v>233.1895850495404</v>
+        <v>233.1895850495405</v>
       </c>
       <c r="U22" t="n">
-        <v>279.9195659803985</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>235.9604235189134</v>
+        <v>74.66606159836336</v>
       </c>
       <c r="Y22" t="n">
-        <v>222.4883416251229</v>
+        <v>222.4883416251231</v>
       </c>
     </row>
     <row r="23">
@@ -2317,28 +2317,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>406.1189678678446</v>
+        <v>406.1189678678447</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>305.6836343310886</v>
+        <v>400.4192906078702</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>410.1968133282724</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>416.8201079258495</v>
       </c>
       <c r="G23" t="n">
-        <v>402.5729276076336</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>5.758835338221843</v>
+        <v>5.758835338221985</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>86.8020359616258</v>
+        <v>86.80203596162595</v>
       </c>
       <c r="T23" t="n">
-        <v>210.9314267726901</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>254.324440930408</v>
+        <v>254.3244409304081</v>
       </c>
       <c r="V23" t="n">
-        <v>346.3391791168841</v>
+        <v>346.3391791168843</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>88.67908317080955</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2475,22 +2475,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>185.8227093301039</v>
+        <v>185.8227093301041</v>
       </c>
       <c r="C25" t="n">
-        <v>19.39617731879424</v>
+        <v>169.3824387139008</v>
       </c>
       <c r="D25" t="n">
-        <v>157.8996982303191</v>
+        <v>157.8996982303192</v>
       </c>
       <c r="E25" t="n">
-        <v>159.3017069803637</v>
+        <v>50.35876504889222</v>
       </c>
       <c r="F25" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>164.6502205165043</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>42.70872534962579</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>168.3611507780025</v>
+        <v>168.3611507780027</v>
       </c>
       <c r="T25" t="n">
-        <v>233.1895850495404</v>
+        <v>233.1895850495405</v>
       </c>
       <c r="U25" t="n">
-        <v>279.9195659803985</v>
+        <v>279.9195659803987</v>
       </c>
       <c r="V25" t="n">
-        <v>271.1468876098733</v>
+        <v>271.1468876098734</v>
       </c>
       <c r="W25" t="n">
-        <v>276.2789678462144</v>
+        <v>276.2789678462145</v>
       </c>
       <c r="X25" t="n">
-        <v>235.9604235189134</v>
+        <v>235.9604235189136</v>
       </c>
       <c r="Y25" t="n">
-        <v>222.4883416251229</v>
+        <v>222.4883416251231</v>
       </c>
     </row>
     <row r="26">
@@ -2563,16 +2563,16 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>402.5729276076336</v>
       </c>
       <c r="H26" t="n">
-        <v>286.6197530438301</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>5.758835338221843</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>86.8020359616258</v>
+        <v>2.152174847180076</v>
       </c>
       <c r="T26" t="n">
         <v>210.9314267726901</v>
@@ -2620,10 +2620,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X26" t="n">
-        <v>37.63626557828138</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y26" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2715,7 +2715,7 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>157.8996982303191</v>
@@ -2724,13 +2724,13 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F28" t="n">
-        <v>12.9985532354083</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>62.1049026684201</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.70872534962579</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>168.3611507780025</v>
@@ -2791,28 +2791,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>410.1968133282722</v>
+        <v>371.7065288113455</v>
       </c>
       <c r="F29" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>402.5729276076336</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>286.6197530438301</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>5.758835338221843</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2845,22 +2845,22 @@
         <v>86.8020359616258</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>210.9314267726901</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>254.324440930408</v>
       </c>
       <c r="V29" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>343.1583052674487</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2949,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>169.3824387139007</v>
+        <v>35.90830758668338</v>
       </c>
       <c r="D31" t="n">
         <v>157.8996982303191</v>
@@ -2961,16 +2961,16 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
-        <v>12.9985532354083</v>
+        <v>164.6502205165041</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>139.8635808156043</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.28511935522941</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3018,7 +3018,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3028,13 +3028,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -3043,10 +3043,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>402.5729276076336</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>286.6197530438301</v>
       </c>
       <c r="I32" t="n">
         <v>5.758835338221843</v>
@@ -3079,19 +3079,19 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>86.8020359616258</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>210.9314267726901</v>
       </c>
       <c r="U32" t="n">
         <v>254.324440930408</v>
       </c>
       <c r="V32" t="n">
-        <v>346.3391791168841</v>
+        <v>81.76440252469291</v>
       </c>
       <c r="W32" t="n">
-        <v>122.1317342508048</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X32" t="n">
         <v>396.636963852737</v>
@@ -3186,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>35.83644793499751</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>159.3017069803637</v>
@@ -3201,7 +3201,7 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>164.6502205165041</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.70872534962579</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>168.3611507780025</v>
       </c>
       <c r="T34" t="n">
-        <v>233.1895850495404</v>
+        <v>119.1615267178747</v>
       </c>
       <c r="U34" t="n">
         <v>279.9195659803985</v>
@@ -3268,25 +3268,25 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>352.4939658492664</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>50.6261801648495</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>286.6197530438301</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>5.758835338221843</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>86.8020359616258</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -3325,16 +3325,16 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y35" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3401,7 +3401,7 @@
         <v>153.288405331309</v>
       </c>
       <c r="U36" t="n">
-        <v>195.3045055848791</v>
+        <v>195.3045055848789</v>
       </c>
       <c r="V36" t="n">
         <v>211.5744117368965</v>
@@ -3426,25 +3426,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>80.65080698518433</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.6502205165041</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>139.8635808156043</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.28511935522941</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>42.70872534962579</v>
       </c>
       <c r="S37" t="n">
-        <v>168.3611507780025</v>
+        <v>78.29936995092761</v>
       </c>
       <c r="T37" t="n">
         <v>233.1895850495404</v>
@@ -3492,7 +3492,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3508,7 +3508,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -3517,7 +3517,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>61.58424358192524</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>286.6197530438301</v>
@@ -3565,13 +3565,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>58.09225929544601</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3584,7 +3584,7 @@
         <v>138.9000023092308</v>
       </c>
       <c r="C39" t="n">
-        <v>132.6551205385436</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D39" t="n">
         <v>115.7281862028015</v>
@@ -3663,25 +3663,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>32.37307569713467</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>139.8635808156043</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.28511935522941</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.70872534962579</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>168.3611507780025</v>
@@ -3726,10 +3726,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>133.7567098964066</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3739,28 +3739,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C41" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>54.55821410892518</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>402.5729276076336</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>162.1447795880114</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>5.758835338221843</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>86.8020359616258</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>210.9314267726901</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3808,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3818,7 +3818,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>106.2090685210198</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C42" t="n">
         <v>132.6551205385437</v>
@@ -3827,7 +3827,7 @@
         <v>115.7281862028015</v>
       </c>
       <c r="E42" t="n">
-        <v>119.2878878475953</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>107.8702810193205</v>
@@ -3836,7 +3836,7 @@
         <v>104.813694600883</v>
       </c>
       <c r="H42" t="n">
-        <v>59.35311653050252</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3869,13 +3869,13 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>86.35704260789379</v>
       </c>
       <c r="T42" t="n">
-        <v>153.288405331309</v>
+        <v>17.57692772842256</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>195.3045055848791</v>
       </c>
       <c r="V42" t="n">
         <v>211.5744117368965</v>
@@ -3897,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
         <v>157.8996982303191</v>
@@ -3915,10 +3915,10 @@
         <v>164.6502205165041</v>
       </c>
       <c r="H43" t="n">
-        <v>139.8635808156043</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>87.28511935522941</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.70872534962579</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>168.3611507780025</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>115.4731073159927</v>
       </c>
       <c r="U43" t="n">
-        <v>54.96778631260867</v>
+        <v>279.9195659803985</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3988,16 +3988,16 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>221.9245683389723</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>402.5729276076336</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>5.758835338221843</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4030,13 +4030,13 @@
         <v>86.8020359616258</v>
       </c>
       <c r="T44" t="n">
-        <v>130.1562220547588</v>
+        <v>210.9314267726901</v>
       </c>
       <c r="U44" t="n">
-        <v>254.324440930408</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W44" t="n">
         <v>379.9226978561831</v>
@@ -4045,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4061,19 +4061,19 @@
         <v>132.6551205385437</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E45" t="n">
         <v>119.2878878475953</v>
       </c>
       <c r="F45" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>80.75212086519663</v>
+        <v>44.04165277761594</v>
       </c>
       <c r="H45" t="n">
-        <v>59.35311653050252</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>86.35704260789379</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>153.288405331309</v>
@@ -4121,7 +4121,7 @@
         <v>211.1008365810345</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y45" t="n">
         <v>157.8079400398083</v>
@@ -4134,13 +4134,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>169.1656782137988</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4149,10 +4149,10 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>164.6502205165041</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>139.8635808156043</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4191,16 +4191,16 @@
         <v>233.1895850495404</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>279.9195659803985</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>235.9604235189134</v>
+        <v>124.8947133662043</v>
       </c>
       <c r="Y46" t="n">
         <v>222.4883416251229</v>
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>329.4331581470369</v>
+        <v>448.4414661735221</v>
       </c>
       <c r="C11" t="n">
-        <v>329.4331581470369</v>
+        <v>448.4414661735221</v>
       </c>
       <c r="D11" t="n">
-        <v>329.4331581470369</v>
+        <v>448.4414661735221</v>
       </c>
       <c r="E11" t="n">
-        <v>329.4331581470369</v>
+        <v>34.10125069041869</v>
       </c>
       <c r="F11" t="n">
-        <v>329.4331581470369</v>
+        <v>34.10125069041869</v>
       </c>
       <c r="G11" t="n">
-        <v>329.4331581470369</v>
+        <v>34.10125069041869</v>
       </c>
       <c r="H11" t="n">
-        <v>39.91825608256197</v>
+        <v>34.10125069041869</v>
       </c>
       <c r="I11" t="n">
         <v>34.10125069041869</v>
@@ -5044,13 +5044,13 @@
         <v>135.2808102736765</v>
       </c>
       <c r="K11" t="n">
-        <v>307.4718418835148</v>
+        <v>307.4718418835149</v>
       </c>
       <c r="L11" t="n">
         <v>536.035256320542</v>
       </c>
       <c r="M11" t="n">
-        <v>803.1822165017563</v>
+        <v>803.1822165017562</v>
       </c>
       <c r="N11" t="n">
         <v>1076.520486185678</v>
@@ -5062,31 +5062,31 @@
         <v>1530.93007424132</v>
       </c>
       <c r="Q11" t="n">
-        <v>1662.8920102786</v>
+        <v>1662.892010278599</v>
       </c>
       <c r="R11" t="n">
-        <v>1705.062534520935</v>
+        <v>1705.062534520934</v>
       </c>
       <c r="S11" t="n">
-        <v>1705.062534520935</v>
+        <v>1617.383710317272</v>
       </c>
       <c r="T11" t="n">
-        <v>1705.062534520935</v>
+        <v>1582.682719532921</v>
       </c>
       <c r="U11" t="n">
-        <v>1705.062534520935</v>
+        <v>1582.682719532921</v>
       </c>
       <c r="V11" t="n">
-        <v>1355.224979857416</v>
+        <v>1232.845164869401</v>
       </c>
       <c r="W11" t="n">
-        <v>971.4646789925841</v>
+        <v>849.0848640045698</v>
       </c>
       <c r="X11" t="n">
-        <v>971.4646789925841</v>
+        <v>448.4414661735221</v>
       </c>
       <c r="Y11" t="n">
-        <v>570.5280059406742</v>
+        <v>448.4414661735221</v>
       </c>
     </row>
     <row r="12">
@@ -5096,46 +5096,46 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>620.3185943360187</v>
+        <v>539.0694595804767</v>
       </c>
       <c r="C12" t="n">
-        <v>486.3235230849644</v>
+        <v>405.0743883294223</v>
       </c>
       <c r="D12" t="n">
-        <v>369.4263653043568</v>
+        <v>288.1772305488146</v>
       </c>
       <c r="E12" t="n">
-        <v>248.9335492966848</v>
+        <v>288.1772305488146</v>
       </c>
       <c r="F12" t="n">
-        <v>139.9736694791894</v>
+        <v>199.9263124392932</v>
       </c>
       <c r="G12" t="n">
-        <v>34.10125069041869</v>
+        <v>94.05389365052238</v>
       </c>
       <c r="H12" t="n">
         <v>34.10125069041869</v>
       </c>
       <c r="I12" t="n">
-        <v>34.10125069041869</v>
+        <v>51.48176916722375</v>
       </c>
       <c r="J12" t="n">
-        <v>330.4102791858834</v>
+        <v>347.7907976626885</v>
       </c>
       <c r="K12" t="n">
-        <v>452.0341949808925</v>
+        <v>529.73290998442</v>
       </c>
       <c r="L12" t="n">
-        <v>634.3331882585685</v>
+        <v>712.031903262096</v>
       </c>
       <c r="M12" t="n">
-        <v>854.907046535367</v>
+        <v>932.6057615388944</v>
       </c>
       <c r="N12" t="n">
-        <v>1087.15433969363</v>
+        <v>1164.853054697158</v>
       </c>
       <c r="O12" t="n">
-        <v>1290.616222686328</v>
+        <v>1368.314937689855</v>
       </c>
       <c r="P12" t="n">
         <v>1523.781144479428</v>
@@ -5144,28 +5144,28 @@
         <v>1607.488912018935</v>
       </c>
       <c r="R12" t="n">
-        <v>1705.062534520935</v>
+        <v>1705.062534520934</v>
       </c>
       <c r="S12" t="n">
         <v>1617.833198553365</v>
       </c>
       <c r="T12" t="n">
-        <v>1462.996425491437</v>
+        <v>1462.996425491436</v>
       </c>
       <c r="U12" t="n">
-        <v>1382.991231103933</v>
+        <v>1265.719147122871</v>
       </c>
       <c r="V12" t="n">
-        <v>1169.279704096967</v>
+        <v>1052.007620115905</v>
       </c>
       <c r="W12" t="n">
-        <v>956.0465358332958</v>
+        <v>838.7744518522336</v>
       </c>
       <c r="X12" t="n">
-        <v>779.7205539721887</v>
+        <v>838.7744518522336</v>
       </c>
       <c r="Y12" t="n">
-        <v>620.3185943360187</v>
+        <v>679.3724922160635</v>
       </c>
     </row>
     <row r="13">
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>685.4511904456729</v>
+        <v>352.3310644658161</v>
       </c>
       <c r="C13" t="n">
-        <v>685.4511904456729</v>
+        <v>352.3310644658161</v>
       </c>
       <c r="D13" t="n">
-        <v>525.9565457685828</v>
+        <v>192.836419788726</v>
       </c>
       <c r="E13" t="n">
-        <v>365.0457306369023</v>
+        <v>192.836419788726</v>
       </c>
       <c r="F13" t="n">
-        <v>200.4146047474936</v>
+        <v>175.377594948605</v>
       </c>
       <c r="G13" t="n">
-        <v>34.10125069041869</v>
+        <v>175.377594948605</v>
       </c>
       <c r="H13" t="n">
         <v>34.10125069041869</v>
@@ -5199,52 +5199,52 @@
         <v>34.10125069041869</v>
       </c>
       <c r="J13" t="n">
-        <v>48.11260810231351</v>
+        <v>113.1139717336499</v>
       </c>
       <c r="K13" t="n">
-        <v>309.365153586401</v>
+        <v>168.0863236320233</v>
       </c>
       <c r="L13" t="n">
-        <v>391.8226857673766</v>
+        <v>564.5229670480219</v>
       </c>
       <c r="M13" t="n">
-        <v>813.825663061308</v>
+        <v>767.1672788095617</v>
       </c>
       <c r="N13" t="n">
-        <v>1235.20315950761</v>
+        <v>856.5104738082778</v>
       </c>
       <c r="O13" t="n">
-        <v>1309.499259692435</v>
+        <v>1245.881333411844</v>
       </c>
       <c r="P13" t="n">
-        <v>1562.631867331539</v>
+        <v>1562.631867331538</v>
       </c>
       <c r="Q13" t="n">
-        <v>1705.062534520935</v>
+        <v>1705.062534520934</v>
       </c>
       <c r="R13" t="n">
         <v>1661.922407905151</v>
       </c>
       <c r="S13" t="n">
-        <v>1491.860639442522</v>
+        <v>1661.922407905151</v>
       </c>
       <c r="T13" t="n">
-        <v>1426.106306391321</v>
+        <v>1426.377372501574</v>
       </c>
       <c r="U13" t="n">
-        <v>1426.106306391321</v>
+        <v>1143.630336157737</v>
       </c>
       <c r="V13" t="n">
-        <v>1152.220561330843</v>
+        <v>869.7445910972588</v>
       </c>
       <c r="W13" t="n">
-        <v>873.1508968397172</v>
+        <v>590.6749266061329</v>
       </c>
       <c r="X13" t="n">
-        <v>873.1508968397172</v>
+        <v>352.3310644658161</v>
       </c>
       <c r="Y13" t="n">
-        <v>873.1508968397172</v>
+        <v>352.3310644658161</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1321.302233656103</v>
+        <v>1705.062534520934</v>
       </c>
       <c r="C14" t="n">
-        <v>911.1776429693731</v>
+        <v>1294.937943834204</v>
       </c>
       <c r="D14" t="n">
-        <v>911.1776429693731</v>
+        <v>1294.937943834204</v>
       </c>
       <c r="E14" t="n">
-        <v>496.8374274862698</v>
+        <v>880.5977283511008</v>
       </c>
       <c r="F14" t="n">
-        <v>496.8374274862698</v>
+        <v>459.5673163047882</v>
       </c>
       <c r="G14" t="n">
-        <v>323.6161527548936</v>
+        <v>329.4331581470371</v>
       </c>
       <c r="H14" t="n">
-        <v>34.10125069041869</v>
+        <v>39.91825608256211</v>
       </c>
       <c r="I14" t="n">
         <v>34.10125069041869</v>
@@ -5284,10 +5284,10 @@
         <v>307.4718418835149</v>
       </c>
       <c r="L14" t="n">
-        <v>536.0352563205422</v>
+        <v>536.035256320542</v>
       </c>
       <c r="M14" t="n">
-        <v>803.1822165017563</v>
+        <v>803.1822165017559</v>
       </c>
       <c r="N14" t="n">
         <v>1076.520486185678</v>
@@ -5317,13 +5317,13 @@
         <v>1705.062534520934</v>
       </c>
       <c r="W14" t="n">
-        <v>1321.302233656103</v>
+        <v>1705.062534520934</v>
       </c>
       <c r="X14" t="n">
-        <v>1321.302233656103</v>
+        <v>1705.062534520934</v>
       </c>
       <c r="Y14" t="n">
-        <v>1321.302233656103</v>
+        <v>1705.062534520934</v>
       </c>
     </row>
     <row r="15">
@@ -5333,22 +5333,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>574.3988185073515</v>
+        <v>362.7434777193694</v>
       </c>
       <c r="C15" t="n">
-        <v>440.4037472562973</v>
+        <v>228.7484064683149</v>
       </c>
       <c r="D15" t="n">
-        <v>323.5065894756897</v>
+        <v>154.5940666980908</v>
       </c>
       <c r="E15" t="n">
-        <v>203.0137734680177</v>
+        <v>34.10125069041869</v>
       </c>
       <c r="F15" t="n">
-        <v>94.05389365052224</v>
+        <v>34.10125069041869</v>
       </c>
       <c r="G15" t="n">
-        <v>94.05389365052224</v>
+        <v>34.10125069041869</v>
       </c>
       <c r="H15" t="n">
         <v>34.10125069041869</v>
@@ -5357,28 +5357,28 @@
         <v>51.48176916722375</v>
       </c>
       <c r="J15" t="n">
-        <v>104.1223936880552</v>
+        <v>347.7907976626885</v>
       </c>
       <c r="K15" t="n">
-        <v>225.7463094830643</v>
+        <v>469.4147134576976</v>
       </c>
       <c r="L15" t="n">
-        <v>408.0453027607402</v>
+        <v>651.7137067353736</v>
       </c>
       <c r="M15" t="n">
-        <v>802.0343837146419</v>
+        <v>872.2875650121721</v>
       </c>
       <c r="N15" t="n">
-        <v>1034.281676872905</v>
+        <v>1104.534858170435</v>
       </c>
       <c r="O15" t="n">
-        <v>1456.284654166837</v>
+        <v>1307.996741163133</v>
       </c>
       <c r="P15" t="n">
-        <v>1611.750860956409</v>
+        <v>1463.462947952705</v>
       </c>
       <c r="Q15" t="n">
-        <v>1695.458628495916</v>
+        <v>1607.488912018935</v>
       </c>
       <c r="R15" t="n">
         <v>1705.062534520934</v>
@@ -5390,19 +5390,19 @@
         <v>1462.996425491436</v>
       </c>
       <c r="U15" t="n">
-        <v>1337.071455275266</v>
+        <v>1265.719147122871</v>
       </c>
       <c r="V15" t="n">
-        <v>1123.3599282683</v>
+        <v>1052.007620115905</v>
       </c>
       <c r="W15" t="n">
-        <v>910.1267600046287</v>
+        <v>838.7744518522336</v>
       </c>
       <c r="X15" t="n">
-        <v>733.8007781435215</v>
+        <v>662.4484699911262</v>
       </c>
       <c r="Y15" t="n">
-        <v>574.3988185073515</v>
+        <v>503.0465103549561</v>
       </c>
     </row>
     <row r="16">
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>193.5958953675087</v>
+        <v>200.4146047474937</v>
       </c>
       <c r="C16" t="n">
-        <v>193.5958953675087</v>
+        <v>200.4146047474937</v>
       </c>
       <c r="D16" t="n">
-        <v>34.10125069041869</v>
+        <v>200.4146047474937</v>
       </c>
       <c r="E16" t="n">
-        <v>34.10125069041869</v>
+        <v>200.4146047474937</v>
       </c>
       <c r="F16" t="n">
-        <v>34.10125069041869</v>
+        <v>200.4146047474937</v>
       </c>
       <c r="G16" t="n">
         <v>34.10125069041869</v>
@@ -5439,49 +5439,49 @@
         <v>113.1139717336499</v>
       </c>
       <c r="K16" t="n">
-        <v>245.74722730581</v>
+        <v>374.3665172177374</v>
       </c>
       <c r="L16" t="n">
-        <v>328.2047594867855</v>
+        <v>770.8031606337361</v>
       </c>
       <c r="M16" t="n">
-        <v>750.2077367807168</v>
+        <v>1137.379180459672</v>
       </c>
       <c r="N16" t="n">
-        <v>1171.585233227018</v>
+        <v>1558.756676905973</v>
       </c>
       <c r="O16" t="n">
-        <v>1245.881333411844</v>
+        <v>1633.052777090799</v>
       </c>
       <c r="P16" t="n">
-        <v>1562.631867331538</v>
+        <v>1688.905827537375</v>
       </c>
       <c r="Q16" t="n">
         <v>1705.062534520934</v>
       </c>
       <c r="R16" t="n">
-        <v>1705.062534520934</v>
+        <v>1661.922407905151</v>
       </c>
       <c r="S16" t="n">
-        <v>1535.000766058306</v>
+        <v>1491.860639442521</v>
       </c>
       <c r="T16" t="n">
-        <v>1299.455730654729</v>
+        <v>1256.315604038945</v>
       </c>
       <c r="U16" t="n">
-        <v>1299.455730654729</v>
+        <v>973.5685676951081</v>
       </c>
       <c r="V16" t="n">
-        <v>1025.569985594251</v>
+        <v>699.6828226346298</v>
       </c>
       <c r="W16" t="n">
-        <v>746.5003211031258</v>
+        <v>420.613158143504</v>
       </c>
       <c r="X16" t="n">
-        <v>508.1564589628092</v>
+        <v>420.613158143504</v>
       </c>
       <c r="Y16" t="n">
-        <v>381.295601761553</v>
+        <v>388.1143111415382</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>744.436526596706</v>
+        <v>740.3772464126861</v>
       </c>
       <c r="C17" t="n">
-        <v>744.436526596706</v>
+        <v>740.3772464126861</v>
       </c>
       <c r="D17" t="n">
-        <v>744.436526596706</v>
+        <v>335.9133165057464</v>
       </c>
       <c r="E17" t="n">
-        <v>330.0963111136028</v>
+        <v>335.9133165057464</v>
       </c>
       <c r="F17" t="n">
-        <v>330.0963111136028</v>
+        <v>335.9133165057464</v>
       </c>
       <c r="G17" t="n">
-        <v>330.0963111136028</v>
+        <v>335.9133165057464</v>
       </c>
       <c r="H17" t="n">
-        <v>40.58140904912791</v>
+        <v>46.39841444127137</v>
       </c>
       <c r="I17" t="n">
-        <v>40.58140904912791</v>
+        <v>40.58140904912795</v>
       </c>
       <c r="J17" t="n">
-        <v>459.288728209137</v>
+        <v>332.2930611329981</v>
       </c>
       <c r="K17" t="n">
-        <v>631.4797598189754</v>
+        <v>504.4840927428364</v>
       </c>
       <c r="L17" t="n">
-        <v>860.0431742560025</v>
+        <v>733.0475071798636</v>
       </c>
       <c r="M17" t="n">
-        <v>1127.190134437217</v>
+        <v>1000.194467361078</v>
       </c>
       <c r="N17" t="n">
-        <v>1400.528404121138</v>
+        <v>1273.532737045</v>
       </c>
       <c r="O17" t="n">
-        <v>1653.233200417665</v>
+        <v>1526.237533341526</v>
       </c>
       <c r="P17" t="n">
-        <v>1854.937992176781</v>
+        <v>1727.942325100642</v>
       </c>
       <c r="Q17" t="n">
-        <v>1986.89992821406</v>
+        <v>1859.904261137921</v>
       </c>
       <c r="R17" t="n">
-        <v>2029.070452456395</v>
+        <v>2029.070452456398</v>
       </c>
       <c r="S17" t="n">
-        <v>2029.070452456395</v>
+        <v>2029.070452456398</v>
       </c>
       <c r="T17" t="n">
-        <v>2029.070452456395</v>
+        <v>2029.070452456398</v>
       </c>
       <c r="U17" t="n">
-        <v>1895.854152143183</v>
+        <v>1772.177077779218</v>
       </c>
       <c r="V17" t="n">
-        <v>1546.016597479663</v>
+        <v>1525.074220329428</v>
       </c>
       <c r="W17" t="n">
-        <v>1546.016597479663</v>
+        <v>1141.313919464596</v>
       </c>
       <c r="X17" t="n">
-        <v>1145.373199648616</v>
+        <v>1141.313919464596</v>
       </c>
       <c r="Y17" t="n">
-        <v>744.436526596706</v>
+        <v>740.3772464126861</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>686.7513956548314</v>
+        <v>686.7513956548328</v>
       </c>
       <c r="C18" t="n">
-        <v>552.7563244037771</v>
+        <v>552.7563244037783</v>
       </c>
       <c r="D18" t="n">
-        <v>435.8591666231696</v>
+        <v>435.8591666231706</v>
       </c>
       <c r="E18" t="n">
-        <v>315.3663506154976</v>
+        <v>315.3663506154984</v>
       </c>
       <c r="F18" t="n">
-        <v>206.4064707980021</v>
+        <v>206.4064707980029</v>
       </c>
       <c r="G18" t="n">
-        <v>100.5340520092315</v>
+        <v>100.5340520092321</v>
       </c>
       <c r="H18" t="n">
-        <v>40.58140904912791</v>
+        <v>40.58140904912795</v>
       </c>
       <c r="I18" t="n">
-        <v>40.58140904912791</v>
+        <v>40.58140904912795</v>
       </c>
       <c r="J18" t="n">
-        <v>93.22203356995939</v>
+        <v>336.8904375445927</v>
       </c>
       <c r="K18" t="n">
-        <v>595.4169705529172</v>
+        <v>458.5143533396018</v>
       </c>
       <c r="L18" t="n">
-        <v>1097.611907535875</v>
+        <v>640.8133466172778</v>
       </c>
       <c r="M18" t="n">
-        <v>1318.185765812673</v>
+        <v>861.3872048940764</v>
       </c>
       <c r="N18" t="n">
-        <v>1550.433058970937</v>
+        <v>1093.63449805234</v>
       </c>
       <c r="O18" t="n">
-        <v>1780.292572102298</v>
+        <v>1297.096381045037</v>
       </c>
       <c r="P18" t="n">
-        <v>1935.75877889187</v>
+        <v>1452.56258783461</v>
       </c>
       <c r="Q18" t="n">
-        <v>2019.466546431377</v>
+        <v>1942.24051237789</v>
       </c>
       <c r="R18" t="n">
-        <v>2029.070452456395</v>
+        <v>2029.070452456398</v>
       </c>
       <c r="S18" t="n">
-        <v>1941.841116488826</v>
+        <v>1941.841116488828</v>
       </c>
       <c r="T18" t="n">
-        <v>1787.004343426897</v>
+        <v>1787.0043434269</v>
       </c>
       <c r="U18" t="n">
-        <v>1589.727065058333</v>
+        <v>1589.727065058335</v>
       </c>
       <c r="V18" t="n">
-        <v>1376.015538051367</v>
+        <v>1376.015538051368</v>
       </c>
       <c r="W18" t="n">
-        <v>1162.782369787695</v>
+        <v>1162.782369787697</v>
       </c>
       <c r="X18" t="n">
-        <v>986.4563879265879</v>
+        <v>986.4563879265896</v>
       </c>
       <c r="Y18" t="n">
-        <v>827.0544282904181</v>
+        <v>827.0544282904195</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>281.5415153274142</v>
+        <v>419.7289718929913</v>
       </c>
       <c r="C19" t="n">
-        <v>201.4922241808084</v>
+        <v>248.6355994547077</v>
       </c>
       <c r="D19" t="n">
-        <v>201.4922241808084</v>
+        <v>128.7481962766325</v>
       </c>
       <c r="E19" t="n">
-        <v>40.58140904912791</v>
+        <v>128.7481962766325</v>
       </c>
       <c r="F19" t="n">
-        <v>40.58140904912791</v>
+        <v>128.7481962766325</v>
       </c>
       <c r="G19" t="n">
-        <v>40.58140904912791</v>
+        <v>128.7481962766325</v>
       </c>
       <c r="H19" t="n">
-        <v>40.58140904912791</v>
+        <v>128.7481962766325</v>
       </c>
       <c r="I19" t="n">
-        <v>40.58140904912791</v>
+        <v>40.58140904912795</v>
       </c>
       <c r="J19" t="n">
-        <v>54.59276646102272</v>
+        <v>119.5941300923592</v>
       </c>
       <c r="K19" t="n">
-        <v>315.8453119451103</v>
+        <v>380.8466755764467</v>
       </c>
       <c r="L19" t="n">
-        <v>712.2819553611089</v>
+        <v>777.2833189924454</v>
       </c>
       <c r="M19" t="n">
-        <v>1145.50781578185</v>
+        <v>865.5428298989013</v>
       </c>
       <c r="N19" t="n">
-        <v>1566.885312228152</v>
+        <v>1286.920326345203</v>
       </c>
       <c r="O19" t="n">
-        <v>1696.163211553142</v>
+        <v>1676.291185948769</v>
       </c>
       <c r="P19" t="n">
-        <v>2012.913745472836</v>
+        <v>1993.041719868463</v>
       </c>
       <c r="Q19" t="n">
-        <v>2029.070452456395</v>
+        <v>2029.070452456398</v>
       </c>
       <c r="R19" t="n">
-        <v>1985.930325840612</v>
+        <v>2029.070452456398</v>
       </c>
       <c r="S19" t="n">
-        <v>1815.868557377983</v>
+        <v>1859.008683993768</v>
       </c>
       <c r="T19" t="n">
-        <v>1580.323521974407</v>
+        <v>1623.463648590192</v>
       </c>
       <c r="U19" t="n">
-        <v>1297.57648563057</v>
+        <v>1623.463648590192</v>
       </c>
       <c r="V19" t="n">
-        <v>1023.690740570092</v>
+        <v>1349.577903529714</v>
       </c>
       <c r="W19" t="n">
-        <v>744.6210760789661</v>
+        <v>1070.508239038588</v>
       </c>
       <c r="X19" t="n">
-        <v>506.2772139386495</v>
+        <v>832.1643768982713</v>
       </c>
       <c r="Y19" t="n">
-        <v>281.5415153274142</v>
+        <v>607.4286782870358</v>
       </c>
     </row>
     <row r="20">
@@ -5728,28 +5728,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>549.9637249952958</v>
+        <v>1150.501837099416</v>
       </c>
       <c r="C20" t="n">
-        <v>139.8391343085659</v>
+        <v>740.3772464126861</v>
       </c>
       <c r="D20" t="n">
-        <v>139.8391343085659</v>
+        <v>335.9133165057464</v>
       </c>
       <c r="E20" t="n">
-        <v>139.8391343085659</v>
+        <v>335.9133165057464</v>
       </c>
       <c r="F20" t="n">
-        <v>40.58140904912797</v>
+        <v>335.9133165057464</v>
       </c>
       <c r="G20" t="n">
-        <v>40.58140904912797</v>
+        <v>335.9133165057464</v>
       </c>
       <c r="H20" t="n">
-        <v>40.58140904912797</v>
+        <v>46.39841444127137</v>
       </c>
       <c r="I20" t="n">
-        <v>40.58140904912797</v>
+        <v>40.58140904912795</v>
       </c>
       <c r="J20" t="n">
         <v>141.7609686323858</v>
@@ -5761,43 +5761,43 @@
         <v>542.5154146792513</v>
       </c>
       <c r="M20" t="n">
-        <v>826.6999892133776</v>
+        <v>1044.71035166221</v>
       </c>
       <c r="N20" t="n">
-        <v>1100.038258897299</v>
+        <v>1318.048621346131</v>
       </c>
       <c r="O20" t="n">
-        <v>1352.743055193826</v>
+        <v>1570.753417642657</v>
       </c>
       <c r="P20" t="n">
-        <v>1854.937992176784</v>
+        <v>1772.458209401774</v>
       </c>
       <c r="Q20" t="n">
-        <v>1986.899928214063</v>
+        <v>1904.420145439053</v>
       </c>
       <c r="R20" t="n">
         <v>2029.070452456398</v>
       </c>
       <c r="S20" t="n">
-        <v>1941.391628252736</v>
+        <v>2029.070452456398</v>
       </c>
       <c r="T20" t="n">
-        <v>1941.391628252736</v>
+        <v>2029.070452456398</v>
       </c>
       <c r="U20" t="n">
-        <v>1684.498253575556</v>
+        <v>2029.070452456398</v>
       </c>
       <c r="V20" t="n">
-        <v>1334.660698912037</v>
+        <v>2029.070452456398</v>
       </c>
       <c r="W20" t="n">
-        <v>950.9003980472057</v>
+        <v>1952.081907982374</v>
       </c>
       <c r="X20" t="n">
-        <v>950.9003980472057</v>
+        <v>1551.438510151326</v>
       </c>
       <c r="Y20" t="n">
-        <v>549.9637249952958</v>
+        <v>1150.501837099416</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>686.7513956548345</v>
+        <v>686.7513956548328</v>
       </c>
       <c r="C21" t="n">
-        <v>552.7563244037801</v>
+        <v>552.7563244037783</v>
       </c>
       <c r="D21" t="n">
-        <v>435.8591666231725</v>
+        <v>435.8591666231705</v>
       </c>
       <c r="E21" t="n">
-        <v>315.3663506155006</v>
+        <v>315.3663506154983</v>
       </c>
       <c r="F21" t="n">
-        <v>206.4064707980022</v>
+        <v>206.4064707980025</v>
       </c>
       <c r="G21" t="n">
-        <v>100.5340520092315</v>
+        <v>100.5340520092317</v>
       </c>
       <c r="H21" t="n">
-        <v>40.58140904912797</v>
+        <v>40.58140904912795</v>
       </c>
       <c r="I21" t="n">
-        <v>40.58140904912797</v>
+        <v>57.96192752593301</v>
       </c>
       <c r="J21" t="n">
-        <v>336.8904375445927</v>
+        <v>354.2709560213978</v>
       </c>
       <c r="K21" t="n">
-        <v>458.5143533396018</v>
+        <v>475.8948718164069</v>
       </c>
       <c r="L21" t="n">
-        <v>640.8133466172778</v>
+        <v>658.1938650940829</v>
       </c>
       <c r="M21" t="n">
-        <v>861.3872048940764</v>
+        <v>878.7677233708814</v>
       </c>
       <c r="N21" t="n">
-        <v>1093.63449805234</v>
+        <v>1111.015016529145</v>
       </c>
       <c r="O21" t="n">
-        <v>1595.829435035298</v>
+        <v>1314.476899521842</v>
       </c>
       <c r="P21" t="n">
-        <v>1847.789062414892</v>
+        <v>1469.943106311415</v>
       </c>
       <c r="Q21" t="n">
-        <v>1931.496829954399</v>
+        <v>1931.496829954398</v>
       </c>
       <c r="R21" t="n">
         <v>2029.070452456398</v>
       </c>
       <c r="S21" t="n">
-        <v>1941.841116488829</v>
+        <v>1941.841116488828</v>
       </c>
       <c r="T21" t="n">
-        <v>1787.004343426901</v>
+        <v>1787.0043434269</v>
       </c>
       <c r="U21" t="n">
-        <v>1589.727065058336</v>
+        <v>1589.727065058335</v>
       </c>
       <c r="V21" t="n">
-        <v>1376.01553805137</v>
+        <v>1376.015538051368</v>
       </c>
       <c r="W21" t="n">
-        <v>1162.782369787698</v>
+        <v>1162.782369787697</v>
       </c>
       <c r="X21" t="n">
-        <v>986.4563879265911</v>
+        <v>986.4563879265897</v>
       </c>
       <c r="Y21" t="n">
-        <v>827.0544282904211</v>
+        <v>827.0544282904195</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>93.84180893337296</v>
+        <v>1092.467852728357</v>
       </c>
       <c r="C22" t="n">
-        <v>40.58140904912797</v>
+        <v>921.3744802900735</v>
       </c>
       <c r="D22" t="n">
-        <v>40.58140904912797</v>
+        <v>761.8798356129834</v>
       </c>
       <c r="E22" t="n">
-        <v>40.58140904912797</v>
+        <v>600.9690204813027</v>
       </c>
       <c r="F22" t="n">
-        <v>40.58140904912797</v>
+        <v>436.3378945918938</v>
       </c>
       <c r="G22" t="n">
-        <v>40.58140904912797</v>
+        <v>270.0245405348188</v>
       </c>
       <c r="H22" t="n">
-        <v>40.58140904912797</v>
+        <v>128.7481962766325</v>
       </c>
       <c r="I22" t="n">
-        <v>40.58140904912797</v>
+        <v>40.58140904912795</v>
       </c>
       <c r="J22" t="n">
-        <v>54.59276646102278</v>
+        <v>119.5941300923592</v>
       </c>
       <c r="K22" t="n">
-        <v>109.5651183593962</v>
+        <v>380.8466755764467</v>
       </c>
       <c r="L22" t="n">
-        <v>506.0017617753948</v>
+        <v>777.2833189924454</v>
       </c>
       <c r="M22" t="n">
-        <v>759.1408952974401</v>
+        <v>1210.509179413187</v>
       </c>
       <c r="N22" t="n">
-        <v>1180.518391743742</v>
+        <v>1299.852374411903</v>
       </c>
       <c r="O22" t="n">
-        <v>1569.889251347308</v>
+        <v>1569.889251347307</v>
       </c>
       <c r="P22" t="n">
-        <v>1886.639785267002</v>
+        <v>1886.639785267001</v>
       </c>
       <c r="Q22" t="n">
         <v>2029.070452456398</v>
       </c>
       <c r="R22" t="n">
-        <v>1985.930325840615</v>
+        <v>1985.930325840614</v>
       </c>
       <c r="S22" t="n">
-        <v>1815.868557377986</v>
+        <v>1815.868557377985</v>
       </c>
       <c r="T22" t="n">
-        <v>1580.32352197441</v>
+        <v>1580.323521974408</v>
       </c>
       <c r="U22" t="n">
-        <v>1297.576485630573</v>
+        <v>1580.323521974408</v>
       </c>
       <c r="V22" t="n">
-        <v>1023.690740570095</v>
+        <v>1580.323521974408</v>
       </c>
       <c r="W22" t="n">
-        <v>744.6210760789693</v>
+        <v>1580.323521974408</v>
       </c>
       <c r="X22" t="n">
-        <v>506.2772139386527</v>
+        <v>1504.903257733637</v>
       </c>
       <c r="Y22" t="n">
-        <v>281.5415153274174</v>
+        <v>1280.167559122402</v>
       </c>
     </row>
     <row r="23">
@@ -5965,52 +5965,52 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>771.0206807012585</v>
+        <v>1295.444569512642</v>
       </c>
       <c r="C23" t="n">
-        <v>771.0206807012585</v>
+        <v>1295.444569512642</v>
       </c>
       <c r="D23" t="n">
-        <v>462.2493328920781</v>
+        <v>890.9806396057027</v>
       </c>
       <c r="E23" t="n">
-        <v>462.2493328920781</v>
+        <v>476.6404241225993</v>
       </c>
       <c r="F23" t="n">
-        <v>462.2493328920781</v>
+        <v>55.61001207628664</v>
       </c>
       <c r="G23" t="n">
-        <v>55.61001207628649</v>
+        <v>55.61001207628664</v>
       </c>
       <c r="H23" t="n">
-        <v>55.61001207628649</v>
+        <v>55.61001207628664</v>
       </c>
       <c r="I23" t="n">
         <v>49.79300668414322</v>
       </c>
       <c r="J23" t="n">
-        <v>150.972566267401</v>
+        <v>348.8755167773273</v>
       </c>
       <c r="K23" t="n">
-        <v>323.1635978772394</v>
+        <v>965.0639744935995</v>
       </c>
       <c r="L23" t="n">
-        <v>939.3520555935115</v>
+        <v>1193.627388930627</v>
       </c>
       <c r="M23" t="n">
-        <v>1555.540513309784</v>
+        <v>1460.774349111841</v>
       </c>
       <c r="N23" t="n">
-        <v>1861.108285871904</v>
+        <v>1734.112618795763</v>
       </c>
       <c r="O23" t="n">
-        <v>2113.81308216843</v>
+        <v>1986.817415092289</v>
       </c>
       <c r="P23" t="n">
-        <v>2315.517873927546</v>
+        <v>2188.522206851405</v>
       </c>
       <c r="Q23" t="n">
-        <v>2447.479809964826</v>
+        <v>2320.484142888684</v>
       </c>
       <c r="R23" t="n">
         <v>2489.650334207161</v>
@@ -6019,22 +6019,22 @@
         <v>2401.971510003498</v>
       </c>
       <c r="T23" t="n">
-        <v>2188.909462758357</v>
+        <v>2401.971510003498</v>
       </c>
       <c r="U23" t="n">
-        <v>1932.016088081177</v>
+        <v>2145.078135326318</v>
       </c>
       <c r="V23" t="n">
-        <v>1582.178533417658</v>
+        <v>1795.240580662798</v>
       </c>
       <c r="W23" t="n">
-        <v>1582.178533417658</v>
+        <v>1705.665749177132</v>
       </c>
       <c r="X23" t="n">
-        <v>1582.178533417658</v>
+        <v>1705.665749177132</v>
       </c>
       <c r="Y23" t="n">
-        <v>1181.241860365748</v>
+        <v>1705.665749177132</v>
       </c>
     </row>
     <row r="24">
@@ -6071,25 +6071,25 @@
         <v>102.4336312049747</v>
       </c>
       <c r="K24" t="n">
-        <v>224.0575469999838</v>
+        <v>456.9822685511225</v>
       </c>
       <c r="L24" t="n">
-        <v>406.3565402776597</v>
+        <v>639.2812618287985</v>
       </c>
       <c r="M24" t="n">
-        <v>626.9303985544582</v>
+        <v>859.8551201055969</v>
       </c>
       <c r="N24" t="n">
-        <v>859.1776917127216</v>
+        <v>1092.10241326386</v>
       </c>
       <c r="O24" t="n">
-        <v>1328.781918810613</v>
+        <v>1295.564296256558</v>
       </c>
       <c r="P24" t="n">
-        <v>1944.970376526885</v>
+        <v>1451.03050304613</v>
       </c>
       <c r="Q24" t="n">
-        <v>2028.678144066392</v>
+        <v>1940.708427589411</v>
       </c>
       <c r="R24" t="n">
         <v>2038.282050091411</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>554.4216906841349</v>
+        <v>597.5618172999175</v>
       </c>
       <c r="C25" t="n">
-        <v>534.8295923823225</v>
+        <v>426.4684448616339</v>
       </c>
       <c r="D25" t="n">
-        <v>375.3349477052325</v>
+        <v>266.9738001845437</v>
       </c>
       <c r="E25" t="n">
-        <v>214.424132573552</v>
+        <v>216.1063607412183</v>
       </c>
       <c r="F25" t="n">
-        <v>49.79300668414322</v>
+        <v>216.1063607412183</v>
       </c>
       <c r="G25" t="n">
         <v>49.79300668414322</v>
@@ -6150,10 +6150,10 @@
         <v>128.8057277273742</v>
       </c>
       <c r="K25" t="n">
-        <v>390.0582732114622</v>
+        <v>390.0582732114619</v>
       </c>
       <c r="L25" t="n">
-        <v>786.4949166274607</v>
+        <v>786.4949166274606</v>
       </c>
       <c r="M25" t="n">
         <v>1219.720777048202</v>
@@ -6171,28 +6171,28 @@
         <v>2489.650334207161</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.510207591377</v>
+        <v>2489.650334207161</v>
       </c>
       <c r="S25" t="n">
-        <v>2276.448439128748</v>
+        <v>2319.588565744531</v>
       </c>
       <c r="T25" t="n">
-        <v>2040.903403725172</v>
+        <v>2084.043530340955</v>
       </c>
       <c r="U25" t="n">
-        <v>1758.156367381335</v>
+        <v>1801.296493997118</v>
       </c>
       <c r="V25" t="n">
-        <v>1484.270622320857</v>
+        <v>1527.41074893664</v>
       </c>
       <c r="W25" t="n">
-        <v>1205.200957829731</v>
+        <v>1248.341084445514</v>
       </c>
       <c r="X25" t="n">
-        <v>966.8570956894146</v>
+        <v>1009.997222305198</v>
       </c>
       <c r="Y25" t="n">
-        <v>742.1213970781793</v>
+        <v>785.2615236939621</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>759.4651296238646</v>
+        <v>883.2797449383905</v>
       </c>
       <c r="C26" t="n">
-        <v>759.4651296238646</v>
+        <v>883.2797449383905</v>
       </c>
       <c r="D26" t="n">
-        <v>759.4651296238646</v>
+        <v>883.2797449383905</v>
       </c>
       <c r="E26" t="n">
-        <v>345.1249141407613</v>
+        <v>883.2797449383905</v>
       </c>
       <c r="F26" t="n">
-        <v>345.1249141407613</v>
+        <v>462.2493328920781</v>
       </c>
       <c r="G26" t="n">
-        <v>345.1249141407613</v>
+        <v>55.61001207628649</v>
       </c>
       <c r="H26" t="n">
         <v>55.61001207628649</v>
@@ -6226,52 +6226,52 @@
         <v>49.79300668414322</v>
       </c>
       <c r="J26" t="n">
-        <v>150.972566267401</v>
+        <v>382.5784697333089</v>
       </c>
       <c r="K26" t="n">
-        <v>323.1635978772394</v>
+        <v>554.7695013431472</v>
       </c>
       <c r="L26" t="n">
-        <v>906.1393900496117</v>
+        <v>783.3329157801744</v>
       </c>
       <c r="M26" t="n">
-        <v>1173.286350230826</v>
+        <v>1050.479875961389</v>
       </c>
       <c r="N26" t="n">
-        <v>1446.624619914748</v>
+        <v>1323.81814564531</v>
       </c>
       <c r="O26" t="n">
-        <v>1699.329416211274</v>
+        <v>1576.522941941837</v>
       </c>
       <c r="P26" t="n">
-        <v>2315.517873927546</v>
+        <v>1778.227733700953</v>
       </c>
       <c r="Q26" t="n">
-        <v>2447.479809964826</v>
+        <v>2320.484142888684</v>
       </c>
       <c r="R26" t="n">
         <v>2489.650334207161</v>
       </c>
       <c r="S26" t="n">
-        <v>2401.971510003498</v>
+        <v>2487.47642022011</v>
       </c>
       <c r="T26" t="n">
-        <v>2188.909462758357</v>
+        <v>2274.414372974969</v>
       </c>
       <c r="U26" t="n">
-        <v>1932.016088081177</v>
+        <v>2017.520998297789</v>
       </c>
       <c r="V26" t="n">
-        <v>1582.178533417658</v>
+        <v>1667.683443634269</v>
       </c>
       <c r="W26" t="n">
-        <v>1198.418232552826</v>
+        <v>1283.923142769438</v>
       </c>
       <c r="X26" t="n">
-        <v>1160.401802675774</v>
+        <v>883.2797449383905</v>
       </c>
       <c r="Y26" t="n">
-        <v>759.4651296238646</v>
+        <v>883.2797449383905</v>
       </c>
     </row>
     <row r="27">
@@ -6305,28 +6305,28 @@
         <v>49.79300668414322</v>
       </c>
       <c r="J27" t="n">
-        <v>102.4336312049747</v>
+        <v>346.102035179608</v>
       </c>
       <c r="K27" t="n">
-        <v>224.0575469999838</v>
+        <v>467.725950974617</v>
       </c>
       <c r="L27" t="n">
-        <v>672.4988843828532</v>
+        <v>650.024944252293</v>
       </c>
       <c r="M27" t="n">
-        <v>893.0727426596517</v>
+        <v>870.5988025290915</v>
       </c>
       <c r="N27" t="n">
-        <v>1125.320035817915</v>
+        <v>1102.846095687355</v>
       </c>
       <c r="O27" t="n">
-        <v>1328.781918810613</v>
+        <v>1306.307978680052</v>
       </c>
       <c r="P27" t="n">
-        <v>1944.970376526885</v>
+        <v>1461.774185469625</v>
       </c>
       <c r="Q27" t="n">
-        <v>2028.678144066392</v>
+        <v>1951.452110012905</v>
       </c>
       <c r="R27" t="n">
         <v>2038.282050091411</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>554.4216906841349</v>
+        <v>597.5618172999185</v>
       </c>
       <c r="C28" t="n">
-        <v>383.3283182458514</v>
+        <v>597.5618172999185</v>
       </c>
       <c r="D28" t="n">
-        <v>223.8336735687614</v>
+        <v>438.0671726228285</v>
       </c>
       <c r="E28" t="n">
-        <v>62.92285843708089</v>
+        <v>277.156357491148</v>
       </c>
       <c r="F28" t="n">
-        <v>49.79300668414322</v>
+        <v>112.5252316017393</v>
       </c>
       <c r="G28" t="n">
-        <v>49.79300668414322</v>
+        <v>112.5252316017393</v>
       </c>
       <c r="H28" t="n">
         <v>49.79300668414322</v>
@@ -6384,13 +6384,13 @@
         <v>49.79300668414322</v>
       </c>
       <c r="J28" t="n">
-        <v>128.8057277273744</v>
+        <v>128.8057277273745</v>
       </c>
       <c r="K28" t="n">
-        <v>390.0582732114619</v>
+        <v>390.058273211462</v>
       </c>
       <c r="L28" t="n">
-        <v>786.4949166274605</v>
+        <v>786.4949166274606</v>
       </c>
       <c r="M28" t="n">
         <v>1219.720777048202</v>
@@ -6408,28 +6408,28 @@
         <v>2489.650334207161</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.510207591377</v>
+        <v>2489.650334207161</v>
       </c>
       <c r="S28" t="n">
-        <v>2276.448439128748</v>
+        <v>2319.588565744531</v>
       </c>
       <c r="T28" t="n">
-        <v>2040.903403725172</v>
+        <v>2084.043530340955</v>
       </c>
       <c r="U28" t="n">
-        <v>1758.156367381335</v>
+        <v>1801.296493997118</v>
       </c>
       <c r="V28" t="n">
-        <v>1484.270622320857</v>
+        <v>1527.41074893664</v>
       </c>
       <c r="W28" t="n">
-        <v>1205.200957829731</v>
+        <v>1248.341084445515</v>
       </c>
       <c r="X28" t="n">
-        <v>966.8570956894146</v>
+        <v>1009.997222305198</v>
       </c>
       <c r="Y28" t="n">
-        <v>742.1213970781793</v>
+        <v>785.2615236939629</v>
       </c>
     </row>
     <row r="29">
@@ -6439,52 +6439,52 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1295.288224900289</v>
+        <v>1548.255787216346</v>
       </c>
       <c r="C29" t="n">
-        <v>885.1636342135589</v>
+        <v>1548.255787216346</v>
       </c>
       <c r="D29" t="n">
-        <v>885.1636342135589</v>
+        <v>1548.255787216346</v>
       </c>
       <c r="E29" t="n">
-        <v>470.8234187304557</v>
+        <v>1172.794647002865</v>
       </c>
       <c r="F29" t="n">
-        <v>49.79300668414322</v>
+        <v>751.7642349565529</v>
       </c>
       <c r="G29" t="n">
-        <v>49.79300668414322</v>
+        <v>345.1249141407613</v>
       </c>
       <c r="H29" t="n">
-        <v>49.79300668414322</v>
+        <v>55.61001207628649</v>
       </c>
       <c r="I29" t="n">
         <v>49.79300668414322</v>
       </c>
       <c r="J29" t="n">
-        <v>150.972566267401</v>
+        <v>477.7483931551302</v>
       </c>
       <c r="K29" t="n">
-        <v>323.1635978772394</v>
+        <v>649.9394247649685</v>
       </c>
       <c r="L29" t="n">
-        <v>551.7270123142666</v>
+        <v>878.5028392019957</v>
       </c>
       <c r="M29" t="n">
-        <v>818.8739724954809</v>
+        <v>1145.64979938321</v>
       </c>
       <c r="N29" t="n">
-        <v>1092.212242179402</v>
+        <v>1418.988069067132</v>
       </c>
       <c r="O29" t="n">
-        <v>1344.917038475929</v>
+        <v>1671.692865363658</v>
       </c>
       <c r="P29" t="n">
-        <v>1905.223400777094</v>
+        <v>1873.397657122774</v>
       </c>
       <c r="Q29" t="n">
-        <v>2447.479809964826</v>
+        <v>2320.484142888684</v>
       </c>
       <c r="R29" t="n">
         <v>2489.650334207161</v>
@@ -6493,22 +6493,22 @@
         <v>2401.971510003498</v>
       </c>
       <c r="T29" t="n">
-        <v>2401.971510003498</v>
+        <v>2188.909462758357</v>
       </c>
       <c r="U29" t="n">
-        <v>2401.971510003498</v>
+        <v>1932.016088081177</v>
       </c>
       <c r="V29" t="n">
-        <v>2052.133955339979</v>
+        <v>1932.016088081177</v>
       </c>
       <c r="W29" t="n">
-        <v>2052.133955339979</v>
+        <v>1548.255787216346</v>
       </c>
       <c r="X29" t="n">
-        <v>2052.133955339979</v>
+        <v>1548.255787216346</v>
       </c>
       <c r="Y29" t="n">
-        <v>1705.509404564778</v>
+        <v>1548.255787216346</v>
       </c>
     </row>
     <row r="30">
@@ -6539,31 +6539,31 @@
         <v>49.79300668414322</v>
       </c>
       <c r="I30" t="n">
-        <v>67.17352516094827</v>
+        <v>49.79300668414322</v>
       </c>
       <c r="J30" t="n">
-        <v>357.3873452018784</v>
+        <v>346.102035179608</v>
       </c>
       <c r="K30" t="n">
-        <v>479.0112609968875</v>
+        <v>467.725950974617</v>
       </c>
       <c r="L30" t="n">
-        <v>661.3102542745635</v>
+        <v>650.024944252293</v>
       </c>
       <c r="M30" t="n">
-        <v>881.8841125513619</v>
+        <v>870.5988025290915</v>
       </c>
       <c r="N30" t="n">
-        <v>1498.072570267634</v>
+        <v>1102.846095687355</v>
       </c>
       <c r="O30" t="n">
-        <v>1701.534453260332</v>
+        <v>1306.307978680052</v>
       </c>
       <c r="P30" t="n">
-        <v>1857.000660049904</v>
+        <v>1461.774185469625</v>
       </c>
       <c r="Q30" t="n">
-        <v>1940.708427589411</v>
+        <v>1951.452110012905</v>
       </c>
       <c r="R30" t="n">
         <v>2038.282050091411</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>554.4216906841349</v>
+        <v>966.8570956894146</v>
       </c>
       <c r="C31" t="n">
-        <v>383.3283182458514</v>
+        <v>930.5860779250879</v>
       </c>
       <c r="D31" t="n">
-        <v>223.8336735687614</v>
+        <v>771.0914332479979</v>
       </c>
       <c r="E31" t="n">
-        <v>62.92285843708089</v>
+        <v>610.1806181163174</v>
       </c>
       <c r="F31" t="n">
-        <v>62.92285843708089</v>
+        <v>445.5494922269087</v>
       </c>
       <c r="G31" t="n">
-        <v>49.79300668414322</v>
+        <v>279.2361381698338</v>
       </c>
       <c r="H31" t="n">
-        <v>49.79300668414322</v>
+        <v>137.9597939116477</v>
       </c>
       <c r="I31" t="n">
         <v>49.79300668414322</v>
@@ -6666,7 +6666,7 @@
         <v>966.8570956894146</v>
       </c>
       <c r="Y31" t="n">
-        <v>742.1213970781793</v>
+        <v>966.8570956894146</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>460.073941983226</v>
+        <v>751.7642349565529</v>
       </c>
       <c r="C32" t="n">
-        <v>460.073941983226</v>
+        <v>751.7642349565529</v>
       </c>
       <c r="D32" t="n">
-        <v>55.61001207628649</v>
+        <v>751.7642349565529</v>
       </c>
       <c r="E32" t="n">
-        <v>55.61001207628649</v>
+        <v>751.7642349565529</v>
       </c>
       <c r="F32" t="n">
-        <v>55.61001207628649</v>
+        <v>751.7642349565529</v>
       </c>
       <c r="G32" t="n">
-        <v>55.61001207628649</v>
+        <v>345.1249141407613</v>
       </c>
       <c r="H32" t="n">
         <v>55.61001207628649</v>
@@ -6703,49 +6703,49 @@
         <v>477.7483931551302</v>
       </c>
       <c r="K32" t="n">
-        <v>649.9394247649685</v>
+        <v>1092.059641569741</v>
       </c>
       <c r="L32" t="n">
-        <v>878.5028392019957</v>
+        <v>1320.623056006768</v>
       </c>
       <c r="M32" t="n">
-        <v>1494.691296918268</v>
+        <v>1587.770016187982</v>
       </c>
       <c r="N32" t="n">
-        <v>1768.02956660219</v>
+        <v>1861.108285871904</v>
       </c>
       <c r="O32" t="n">
-        <v>2020.734362898716</v>
+        <v>2113.81308216843</v>
       </c>
       <c r="P32" t="n">
-        <v>2222.439154657832</v>
+        <v>2315.517873927546</v>
       </c>
       <c r="Q32" t="n">
-        <v>2354.401090695112</v>
+        <v>2447.479809964826</v>
       </c>
       <c r="R32" t="n">
         <v>2489.650334207161</v>
       </c>
       <c r="S32" t="n">
-        <v>2401.971510003498</v>
+        <v>2489.650334207161</v>
       </c>
       <c r="T32" t="n">
-        <v>2401.971510003498</v>
+        <v>2276.588286962019</v>
       </c>
       <c r="U32" t="n">
-        <v>2145.078135326318</v>
+        <v>2019.694912284839</v>
       </c>
       <c r="V32" t="n">
-        <v>1795.240580662799</v>
+        <v>1937.104606704341</v>
       </c>
       <c r="W32" t="n">
-        <v>1671.875192530673</v>
+        <v>1553.34430583951</v>
       </c>
       <c r="X32" t="n">
-        <v>1271.231794699625</v>
+        <v>1152.700908008463</v>
       </c>
       <c r="Y32" t="n">
-        <v>870.2951216477154</v>
+        <v>751.7642349565529</v>
       </c>
     </row>
     <row r="33">
@@ -6779,28 +6779,28 @@
         <v>49.79300668414322</v>
       </c>
       <c r="J33" t="n">
-        <v>102.4336312049747</v>
+        <v>346.102035179608</v>
       </c>
       <c r="K33" t="n">
-        <v>224.0575469999838</v>
+        <v>467.725950974617</v>
       </c>
       <c r="L33" t="n">
-        <v>406.3565402776597</v>
+        <v>650.024944252293</v>
       </c>
       <c r="M33" t="n">
-        <v>1022.544997993932</v>
+        <v>870.5988025290915</v>
       </c>
       <c r="N33" t="n">
-        <v>1254.792291152195</v>
+        <v>1102.846095687355</v>
       </c>
       <c r="O33" t="n">
-        <v>1458.254174144893</v>
+        <v>1306.307978680052</v>
       </c>
       <c r="P33" t="n">
-        <v>1944.970376526885</v>
+        <v>1461.774185469625</v>
       </c>
       <c r="Q33" t="n">
-        <v>2028.678144066392</v>
+        <v>1951.452110012905</v>
       </c>
       <c r="R33" t="n">
         <v>2038.282050091411</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>705.922964820606</v>
+        <v>712.7416742005909</v>
       </c>
       <c r="C34" t="n">
-        <v>534.8295923823225</v>
+        <v>541.6483017623074</v>
       </c>
       <c r="D34" t="n">
-        <v>375.3349477052325</v>
+        <v>541.6483017623074</v>
       </c>
       <c r="E34" t="n">
-        <v>214.424132573552</v>
+        <v>380.7374866306268</v>
       </c>
       <c r="F34" t="n">
-        <v>49.79300668414322</v>
+        <v>216.1063607412181</v>
       </c>
       <c r="G34" t="n">
         <v>49.79300668414322</v>
@@ -6858,19 +6858,19 @@
         <v>49.79300668414322</v>
       </c>
       <c r="J34" t="n">
-        <v>128.8057277273744</v>
+        <v>128.8057277273745</v>
       </c>
       <c r="K34" t="n">
-        <v>390.0582732114619</v>
+        <v>390.058273211462</v>
       </c>
       <c r="L34" t="n">
-        <v>786.4949166274605</v>
+        <v>786.4949166274606</v>
       </c>
       <c r="M34" t="n">
         <v>1219.720777048202</v>
       </c>
       <c r="N34" t="n">
-        <v>1641.098273494503</v>
+        <v>1641.098273494504</v>
       </c>
       <c r="O34" t="n">
         <v>2030.46913309807</v>
@@ -6882,28 +6882,28 @@
         <v>2489.650334207161</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.510207591377</v>
+        <v>2489.650334207161</v>
       </c>
       <c r="S34" t="n">
-        <v>2276.448439128748</v>
+        <v>2319.588565744531</v>
       </c>
       <c r="T34" t="n">
-        <v>2040.903403725172</v>
+        <v>2199.223387241628</v>
       </c>
       <c r="U34" t="n">
-        <v>1758.156367381335</v>
+        <v>1916.476350897791</v>
       </c>
       <c r="V34" t="n">
-        <v>1484.270622320857</v>
+        <v>1642.590605837313</v>
       </c>
       <c r="W34" t="n">
-        <v>1205.200957829731</v>
+        <v>1363.520941346187</v>
       </c>
       <c r="X34" t="n">
-        <v>966.8570956894146</v>
+        <v>1125.177079205871</v>
       </c>
       <c r="Y34" t="n">
-        <v>742.1213970781793</v>
+        <v>900.4413805946352</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>396.6359200079829</v>
+        <v>1218.205874960859</v>
       </c>
       <c r="C35" t="n">
-        <v>396.6359200079829</v>
+        <v>808.0812842741287</v>
       </c>
       <c r="D35" t="n">
-        <v>396.6359200079829</v>
+        <v>808.0812842741287</v>
       </c>
       <c r="E35" t="n">
-        <v>40.58140904912791</v>
+        <v>808.0812842741287</v>
       </c>
       <c r="F35" t="n">
-        <v>40.58140904912791</v>
+        <v>387.0508722278163</v>
       </c>
       <c r="G35" t="n">
-        <v>40.58140904912791</v>
+        <v>335.9133165057461</v>
       </c>
       <c r="H35" t="n">
-        <v>40.58140904912791</v>
+        <v>46.39841444127119</v>
       </c>
       <c r="I35" t="n">
         <v>40.58140904912791</v>
       </c>
       <c r="J35" t="n">
-        <v>141.7609686323857</v>
+        <v>141.7609686323858</v>
       </c>
       <c r="K35" t="n">
-        <v>313.9520002422241</v>
+        <v>504.4840927428346</v>
       </c>
       <c r="L35" t="n">
-        <v>542.5154146792513</v>
+        <v>733.0475071798618</v>
       </c>
       <c r="M35" t="n">
-        <v>809.6623748604655</v>
+        <v>1000.194467361076</v>
       </c>
       <c r="N35" t="n">
-        <v>1083.000644544387</v>
+        <v>1273.532737044998</v>
       </c>
       <c r="O35" t="n">
-        <v>1335.705440840914</v>
+        <v>1526.237533341524</v>
       </c>
       <c r="P35" t="n">
-        <v>1837.900377823871</v>
+        <v>1727.94232510064</v>
       </c>
       <c r="Q35" t="n">
-        <v>1986.89992821406</v>
+        <v>1859.904261137919</v>
       </c>
       <c r="R35" t="n">
-        <v>2029.070452456395</v>
+        <v>2029.070452456396</v>
       </c>
       <c r="S35" t="n">
-        <v>1941.391628252733</v>
+        <v>2029.070452456396</v>
       </c>
       <c r="T35" t="n">
-        <v>1941.391628252733</v>
+        <v>2029.070452456396</v>
       </c>
       <c r="U35" t="n">
-        <v>1941.391628252733</v>
+        <v>2029.070452456396</v>
       </c>
       <c r="V35" t="n">
-        <v>1591.554073589214</v>
+        <v>2029.070452456396</v>
       </c>
       <c r="W35" t="n">
-        <v>1207.793772724382</v>
+        <v>2029.070452456396</v>
       </c>
       <c r="X35" t="n">
-        <v>1207.793772724382</v>
+        <v>1628.427054625348</v>
       </c>
       <c r="Y35" t="n">
-        <v>806.8570996724724</v>
+        <v>1628.427054625348</v>
       </c>
     </row>
     <row r="36">
@@ -6992,19 +6992,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>686.7513956548314</v>
+        <v>686.7513956548316</v>
       </c>
       <c r="C36" t="n">
-        <v>552.7563244037771</v>
+        <v>552.7563244037774</v>
       </c>
       <c r="D36" t="n">
-        <v>435.8591666231696</v>
+        <v>435.8591666231698</v>
       </c>
       <c r="E36" t="n">
-        <v>315.3663506154976</v>
+        <v>315.3663506154978</v>
       </c>
       <c r="F36" t="n">
-        <v>206.4064707980021</v>
+        <v>206.4064707980024</v>
       </c>
       <c r="G36" t="n">
         <v>100.5340520092315</v>
@@ -7013,34 +7013,34 @@
         <v>40.58140904912791</v>
       </c>
       <c r="I36" t="n">
-        <v>40.58140904912791</v>
+        <v>57.96192752593297</v>
       </c>
       <c r="J36" t="n">
-        <v>93.22203356995939</v>
+        <v>351.5458909369232</v>
       </c>
       <c r="K36" t="n">
-        <v>214.8459493649685</v>
+        <v>853.7408279198811</v>
       </c>
       <c r="L36" t="n">
-        <v>717.0408863479263</v>
+        <v>1036.039821197557</v>
       </c>
       <c r="M36" t="n">
-        <v>1219.235823330884</v>
+        <v>1256.613679474356</v>
       </c>
       <c r="N36" t="n">
-        <v>1451.483116489148</v>
+        <v>1488.860972632619</v>
       </c>
       <c r="O36" t="n">
-        <v>1654.944999481845</v>
+        <v>1692.322855625317</v>
       </c>
       <c r="P36" t="n">
-        <v>1810.411206271417</v>
+        <v>1847.789062414889</v>
       </c>
       <c r="Q36" t="n">
         <v>1931.496829954396</v>
       </c>
       <c r="R36" t="n">
-        <v>2029.070452456395</v>
+        <v>2029.070452456396</v>
       </c>
       <c r="S36" t="n">
         <v>1941.841116488826</v>
@@ -7055,13 +7055,13 @@
         <v>1376.015538051367</v>
       </c>
       <c r="W36" t="n">
-        <v>1162.782369787695</v>
+        <v>1162.782369787696</v>
       </c>
       <c r="X36" t="n">
-        <v>986.4563879265879</v>
+        <v>986.4563879265884</v>
       </c>
       <c r="Y36" t="n">
-        <v>827.0544282904181</v>
+        <v>827.0544282904183</v>
       </c>
     </row>
     <row r="37">
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>281.5415153274142</v>
+        <v>597.2487097235739</v>
       </c>
       <c r="C37" t="n">
-        <v>200.0760537262179</v>
+        <v>597.2487097235739</v>
       </c>
       <c r="D37" t="n">
-        <v>40.58140904912791</v>
+        <v>597.2487097235739</v>
       </c>
       <c r="E37" t="n">
-        <v>40.58140904912791</v>
+        <v>436.3378945918934</v>
       </c>
       <c r="F37" t="n">
-        <v>40.58140904912791</v>
+        <v>436.3378945918934</v>
       </c>
       <c r="G37" t="n">
-        <v>40.58140904912791</v>
+        <v>270.0245405348185</v>
       </c>
       <c r="H37" t="n">
-        <v>40.58140904912791</v>
+        <v>128.7481962766324</v>
       </c>
       <c r="I37" t="n">
         <v>40.58140904912791</v>
@@ -7098,49 +7098,49 @@
         <v>119.5941300923591</v>
       </c>
       <c r="K37" t="n">
-        <v>380.8466755764466</v>
+        <v>174.5664819907325</v>
       </c>
       <c r="L37" t="n">
-        <v>777.2833189924452</v>
+        <v>571.0031254067312</v>
       </c>
       <c r="M37" t="n">
-        <v>865.5428298989011</v>
+        <v>1004.228985827473</v>
       </c>
       <c r="N37" t="n">
-        <v>1180.518391743738</v>
+        <v>1425.606482273774</v>
       </c>
       <c r="O37" t="n">
-        <v>1569.889251347305</v>
+        <v>1814.97734187734</v>
       </c>
       <c r="P37" t="n">
-        <v>1886.639785266999</v>
+        <v>2012.913745472836</v>
       </c>
       <c r="Q37" t="n">
-        <v>2029.070452456395</v>
+        <v>2029.070452456396</v>
       </c>
       <c r="R37" t="n">
         <v>1985.930325840612</v>
       </c>
       <c r="S37" t="n">
-        <v>1815.868557377983</v>
+        <v>1906.840053162907</v>
       </c>
       <c r="T37" t="n">
-        <v>1580.323521974407</v>
+        <v>1671.295017759331</v>
       </c>
       <c r="U37" t="n">
-        <v>1297.57648563057</v>
+        <v>1388.547981415494</v>
       </c>
       <c r="V37" t="n">
-        <v>1023.690740570092</v>
+        <v>1114.662236355016</v>
       </c>
       <c r="W37" t="n">
-        <v>744.6210760789661</v>
+        <v>835.5925718638905</v>
       </c>
       <c r="X37" t="n">
-        <v>506.2772139386495</v>
+        <v>597.2487097235739</v>
       </c>
       <c r="Y37" t="n">
-        <v>281.5415153274142</v>
+        <v>597.2487097235739</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>398.1196231541554</v>
+        <v>740.3772464126855</v>
       </c>
       <c r="C38" t="n">
-        <v>398.1196231541554</v>
+        <v>740.3772464126855</v>
       </c>
       <c r="D38" t="n">
-        <v>398.1196231541554</v>
+        <v>335.9133165057461</v>
       </c>
       <c r="E38" t="n">
-        <v>398.1196231541554</v>
+        <v>335.9133165057461</v>
       </c>
       <c r="F38" t="n">
-        <v>398.1196231541554</v>
+        <v>335.9133165057461</v>
       </c>
       <c r="G38" t="n">
         <v>335.9133165057461</v>
@@ -7174,7 +7174,7 @@
         <v>40.58140904912791</v>
       </c>
       <c r="J38" t="n">
-        <v>141.7609686323857</v>
+        <v>141.7609686323858</v>
       </c>
       <c r="K38" t="n">
         <v>313.9520002422241</v>
@@ -7186,22 +7186,22 @@
         <v>809.6623748604655</v>
       </c>
       <c r="N38" t="n">
-        <v>1083.000644544387</v>
+        <v>1311.857311843423</v>
       </c>
       <c r="O38" t="n">
-        <v>1335.705440840914</v>
+        <v>1564.562108139949</v>
       </c>
       <c r="P38" t="n">
-        <v>1537.41023260003</v>
+        <v>1854.937992176781</v>
       </c>
       <c r="Q38" t="n">
-        <v>1986.89992821406</v>
+        <v>1986.899928214061</v>
       </c>
       <c r="R38" t="n">
-        <v>2029.070452456395</v>
+        <v>2029.070452456396</v>
       </c>
       <c r="S38" t="n">
-        <v>2029.070452456395</v>
+        <v>2029.070452456396</v>
       </c>
       <c r="T38" t="n">
         <v>1816.008405211254</v>
@@ -7213,13 +7213,13 @@
         <v>1209.277475870555</v>
       </c>
       <c r="W38" t="n">
-        <v>1209.277475870555</v>
+        <v>1150.598426077175</v>
       </c>
       <c r="X38" t="n">
-        <v>1209.277475870555</v>
+        <v>1150.598426077175</v>
       </c>
       <c r="Y38" t="n">
-        <v>808.3408028186449</v>
+        <v>1150.598426077175</v>
       </c>
     </row>
     <row r="39">
@@ -7229,7 +7229,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>686.7513956548313</v>
+        <v>686.7513956548314</v>
       </c>
       <c r="C39" t="n">
         <v>552.7563244037772</v>
@@ -7250,25 +7250,25 @@
         <v>40.58140904912791</v>
       </c>
       <c r="I39" t="n">
-        <v>40.58140904912791</v>
+        <v>57.96192752593297</v>
       </c>
       <c r="J39" t="n">
-        <v>93.22203356995939</v>
+        <v>110.6025520467645</v>
       </c>
       <c r="K39" t="n">
-        <v>214.8459493649685</v>
+        <v>232.2264678417735</v>
       </c>
       <c r="L39" t="n">
-        <v>630.0696641937832</v>
+        <v>414.5254611194495</v>
       </c>
       <c r="M39" t="n">
-        <v>850.6435224705816</v>
+        <v>635.099319396248</v>
       </c>
       <c r="N39" t="n">
-        <v>1082.890815628845</v>
+        <v>867.3466125545115</v>
       </c>
       <c r="O39" t="n">
-        <v>1286.352698621543</v>
+        <v>1070.808495547209</v>
       </c>
       <c r="P39" t="n">
         <v>1441.818905411115</v>
@@ -7277,28 +7277,28 @@
         <v>1931.496829954396</v>
       </c>
       <c r="R39" t="n">
-        <v>2029.070452456395</v>
+        <v>2029.070452456396</v>
       </c>
       <c r="S39" t="n">
         <v>1941.841116488826</v>
       </c>
       <c r="T39" t="n">
-        <v>1787.004343426897</v>
+        <v>1787.004343426898</v>
       </c>
       <c r="U39" t="n">
         <v>1589.727065058333</v>
       </c>
       <c r="V39" t="n">
-        <v>1376.015538051366</v>
+        <v>1376.015538051367</v>
       </c>
       <c r="W39" t="n">
         <v>1162.782369787695</v>
       </c>
       <c r="X39" t="n">
-        <v>986.4563879265879</v>
+        <v>986.456387926588</v>
       </c>
       <c r="Y39" t="n">
-        <v>827.0544282904179</v>
+        <v>827.0544282904181</v>
       </c>
     </row>
     <row r="40">
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>371.1694261645014</v>
+        <v>787.76120269475</v>
       </c>
       <c r="C40" t="n">
-        <v>200.0760537262179</v>
+        <v>787.76120269475</v>
       </c>
       <c r="D40" t="n">
-        <v>40.58140904912791</v>
+        <v>628.2665580176599</v>
       </c>
       <c r="E40" t="n">
-        <v>40.58140904912791</v>
+        <v>467.3557428859794</v>
       </c>
       <c r="F40" t="n">
-        <v>40.58140904912791</v>
+        <v>302.7246169965707</v>
       </c>
       <c r="G40" t="n">
-        <v>40.58140904912791</v>
+        <v>270.0245405348185</v>
       </c>
       <c r="H40" t="n">
-        <v>40.58140904912791</v>
+        <v>128.7481962766324</v>
       </c>
       <c r="I40" t="n">
         <v>40.58140904912791</v>
@@ -7335,16 +7335,16 @@
         <v>119.5941300923591</v>
       </c>
       <c r="K40" t="n">
-        <v>174.5664819907325</v>
+        <v>380.8466755764467</v>
       </c>
       <c r="L40" t="n">
-        <v>571.0031254067312</v>
+        <v>777.2833189924453</v>
       </c>
       <c r="M40" t="n">
-        <v>1004.228985827473</v>
+        <v>865.5428298989012</v>
       </c>
       <c r="N40" t="n">
-        <v>1425.606482273774</v>
+        <v>1180.518391743739</v>
       </c>
       <c r="O40" t="n">
         <v>1569.889251347305</v>
@@ -7353,31 +7353,31 @@
         <v>1886.639785266999</v>
       </c>
       <c r="Q40" t="n">
-        <v>2029.070452456395</v>
+        <v>2029.070452456396</v>
       </c>
       <c r="R40" t="n">
-        <v>1985.930325840612</v>
+        <v>2029.070452456396</v>
       </c>
       <c r="S40" t="n">
-        <v>1815.868557377983</v>
+        <v>1859.008683993767</v>
       </c>
       <c r="T40" t="n">
-        <v>1580.323521974407</v>
+        <v>1623.463648590191</v>
       </c>
       <c r="U40" t="n">
-        <v>1297.57648563057</v>
+        <v>1340.716612246354</v>
       </c>
       <c r="V40" t="n">
-        <v>1023.690740570092</v>
+        <v>1066.830867185876</v>
       </c>
       <c r="W40" t="n">
-        <v>744.6210760789661</v>
+        <v>787.76120269475</v>
       </c>
       <c r="X40" t="n">
-        <v>506.2772139386495</v>
+        <v>787.76120269475</v>
       </c>
       <c r="Y40" t="n">
-        <v>371.1694261645014</v>
+        <v>787.76120269475</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>920.3655606041935</v>
+        <v>610.3401825428095</v>
       </c>
       <c r="C41" t="n">
-        <v>510.2409699174636</v>
+        <v>610.3401825428095</v>
       </c>
       <c r="D41" t="n">
-        <v>455.1316627367311</v>
+        <v>610.3401825428095</v>
       </c>
       <c r="E41" t="n">
-        <v>455.1316627367311</v>
+        <v>610.3401825428095</v>
       </c>
       <c r="F41" t="n">
-        <v>34.10125069041869</v>
+        <v>610.3401825428095</v>
       </c>
       <c r="G41" t="n">
-        <v>34.10125069041869</v>
+        <v>203.700861727018</v>
       </c>
       <c r="H41" t="n">
-        <v>34.10125069041869</v>
+        <v>39.91825608256197</v>
       </c>
       <c r="I41" t="n">
         <v>34.10125069041869</v>
@@ -7417,10 +7417,10 @@
         <v>307.4718418835149</v>
       </c>
       <c r="L41" t="n">
-        <v>536.0352563205421</v>
+        <v>536.035256320542</v>
       </c>
       <c r="M41" t="n">
-        <v>803.1822165017563</v>
+        <v>803.1822165017561</v>
       </c>
       <c r="N41" t="n">
         <v>1076.520486185678</v>
@@ -7429,34 +7429,34 @@
         <v>1329.225282482204</v>
       </c>
       <c r="P41" t="n">
-        <v>1530.930074241321</v>
+        <v>1530.93007424132</v>
       </c>
       <c r="Q41" t="n">
-        <v>1662.8920102786</v>
+        <v>1662.892010278599</v>
       </c>
       <c r="R41" t="n">
-        <v>1705.062534520935</v>
+        <v>1705.062534520934</v>
       </c>
       <c r="S41" t="n">
-        <v>1705.062534520935</v>
+        <v>1617.383710317272</v>
       </c>
       <c r="T41" t="n">
-        <v>1705.062534520935</v>
+        <v>1404.32166307213</v>
       </c>
       <c r="U41" t="n">
-        <v>1705.062534520935</v>
+        <v>1404.32166307213</v>
       </c>
       <c r="V41" t="n">
-        <v>1705.062534520935</v>
+        <v>1404.32166307213</v>
       </c>
       <c r="W41" t="n">
-        <v>1321.302233656103</v>
+        <v>1020.561362207299</v>
       </c>
       <c r="X41" t="n">
-        <v>1321.302233656103</v>
+        <v>1020.561362207299</v>
       </c>
       <c r="Y41" t="n">
-        <v>920.3655606041935</v>
+        <v>1020.561362207299</v>
       </c>
     </row>
     <row r="42">
@@ -7466,22 +7466,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>680.2712372961223</v>
+        <v>499.8257783283466</v>
       </c>
       <c r="C42" t="n">
-        <v>546.276166045068</v>
+        <v>365.8307070772923</v>
       </c>
       <c r="D42" t="n">
-        <v>429.3790082644604</v>
+        <v>248.9335492966848</v>
       </c>
       <c r="E42" t="n">
-        <v>308.8861922567884</v>
+        <v>248.9335492966848</v>
       </c>
       <c r="F42" t="n">
-        <v>199.9263124392929</v>
+        <v>139.9736694791894</v>
       </c>
       <c r="G42" t="n">
-        <v>94.05389365052226</v>
+        <v>34.10125069041869</v>
       </c>
       <c r="H42" t="n">
         <v>34.10125069041869</v>
@@ -7490,16 +7490,16 @@
         <v>51.48176916722375</v>
       </c>
       <c r="J42" t="n">
-        <v>104.1223936880552</v>
+        <v>347.7907976626885</v>
       </c>
       <c r="K42" t="n">
-        <v>377.9986424451462</v>
+        <v>469.4147134576976</v>
       </c>
       <c r="L42" t="n">
-        <v>800.0016197390776</v>
+        <v>651.7137067353736</v>
       </c>
       <c r="M42" t="n">
-        <v>1020.575478015876</v>
+        <v>872.2875650121721</v>
       </c>
       <c r="N42" t="n">
         <v>1252.822771174139</v>
@@ -7514,28 +7514,28 @@
         <v>1695.458628495916</v>
       </c>
       <c r="R42" t="n">
-        <v>1705.062534520935</v>
+        <v>1705.062534520934</v>
       </c>
       <c r="S42" t="n">
-        <v>1705.062534520935</v>
+        <v>1617.833198553365</v>
       </c>
       <c r="T42" t="n">
-        <v>1550.225761459006</v>
+        <v>1600.078726100413</v>
       </c>
       <c r="U42" t="n">
-        <v>1550.225761459006</v>
+        <v>1402.801447731848</v>
       </c>
       <c r="V42" t="n">
-        <v>1336.51423445204</v>
+        <v>1189.089920724882</v>
       </c>
       <c r="W42" t="n">
-        <v>1123.281066188369</v>
+        <v>975.8567524612106</v>
       </c>
       <c r="X42" t="n">
-        <v>946.9550843272618</v>
+        <v>799.5307706001033</v>
       </c>
       <c r="Y42" t="n">
-        <v>787.5531246910919</v>
+        <v>640.1288109639333</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>914.8943219313635</v>
+        <v>856.5445628839564</v>
       </c>
       <c r="C43" t="n">
-        <v>914.8943219313635</v>
+        <v>685.4511904456729</v>
       </c>
       <c r="D43" t="n">
-        <v>755.3996772542735</v>
+        <v>525.9565457685828</v>
       </c>
       <c r="E43" t="n">
-        <v>594.4888621225929</v>
+        <v>365.0457306369023</v>
       </c>
       <c r="F43" t="n">
-        <v>429.8577362331841</v>
+        <v>200.4146047474936</v>
       </c>
       <c r="G43" t="n">
-        <v>263.5443821761093</v>
+        <v>34.10125069041869</v>
       </c>
       <c r="H43" t="n">
-        <v>122.2680379179232</v>
+        <v>34.10125069041869</v>
       </c>
       <c r="I43" t="n">
         <v>34.10125069041869</v>
       </c>
       <c r="J43" t="n">
-        <v>48.11260810231351</v>
+        <v>48.1126081023135</v>
       </c>
       <c r="K43" t="n">
-        <v>103.0849600006869</v>
+        <v>309.365153586401</v>
       </c>
       <c r="L43" t="n">
-        <v>499.5216034166855</v>
+        <v>705.8017970023997</v>
       </c>
       <c r="M43" t="n">
-        <v>750.2077367807173</v>
+        <v>794.0613079088556</v>
       </c>
       <c r="N43" t="n">
-        <v>1171.585233227019</v>
+        <v>883.4045029075717</v>
       </c>
       <c r="O43" t="n">
         <v>1245.881333411844</v>
       </c>
       <c r="P43" t="n">
-        <v>1562.631867331539</v>
+        <v>1562.631867331538</v>
       </c>
       <c r="Q43" t="n">
-        <v>1705.062534520935</v>
+        <v>1705.062534520934</v>
       </c>
       <c r="R43" t="n">
-        <v>1661.922407905151</v>
+        <v>1705.062534520934</v>
       </c>
       <c r="S43" t="n">
-        <v>1661.922407905151</v>
+        <v>1535.000766058306</v>
       </c>
       <c r="T43" t="n">
-        <v>1661.922407905151</v>
+        <v>1418.361263718919</v>
       </c>
       <c r="U43" t="n">
-        <v>1606.399391427769</v>
+        <v>1135.614227375082</v>
       </c>
       <c r="V43" t="n">
-        <v>1606.399391427769</v>
+        <v>1135.614227375082</v>
       </c>
       <c r="W43" t="n">
-        <v>1327.329726936643</v>
+        <v>856.5445628839564</v>
       </c>
       <c r="X43" t="n">
-        <v>1327.329726936643</v>
+        <v>856.5445628839564</v>
       </c>
       <c r="Y43" t="n">
-        <v>1102.594028325408</v>
+        <v>856.5445628839564</v>
       </c>
     </row>
     <row r="44">
@@ -7624,40 +7624,40 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>34.10125069041869</v>
+        <v>670.7238075437801</v>
       </c>
       <c r="C44" t="n">
-        <v>34.10125069041869</v>
+        <v>670.7238075437801</v>
       </c>
       <c r="D44" t="n">
-        <v>34.10125069041869</v>
+        <v>670.7238075437801</v>
       </c>
       <c r="E44" t="n">
-        <v>34.10125069041869</v>
+        <v>670.7238075437801</v>
       </c>
       <c r="F44" t="n">
-        <v>34.10125069041869</v>
+        <v>446.5575768983535</v>
       </c>
       <c r="G44" t="n">
-        <v>34.10125069041869</v>
+        <v>39.91825608256197</v>
       </c>
       <c r="H44" t="n">
-        <v>34.10125069041869</v>
+        <v>39.91825608256197</v>
       </c>
       <c r="I44" t="n">
         <v>34.10125069041869</v>
       </c>
       <c r="J44" t="n">
-        <v>135.2808102736763</v>
+        <v>135.2808102736765</v>
       </c>
       <c r="K44" t="n">
-        <v>307.471841883515</v>
+        <v>307.4718418835148</v>
       </c>
       <c r="L44" t="n">
-        <v>536.0352563205424</v>
+        <v>536.035256320542</v>
       </c>
       <c r="M44" t="n">
-        <v>803.1822165017566</v>
+        <v>803.1822165017563</v>
       </c>
       <c r="N44" t="n">
         <v>1076.520486185678</v>
@@ -7678,22 +7678,22 @@
         <v>1617.383710317272</v>
       </c>
       <c r="T44" t="n">
-        <v>1485.912778948829</v>
+        <v>1404.321663072131</v>
       </c>
       <c r="U44" t="n">
-        <v>1229.019404271649</v>
+        <v>1404.321663072131</v>
       </c>
       <c r="V44" t="n">
-        <v>1229.019404271649</v>
+        <v>1054.484108408612</v>
       </c>
       <c r="W44" t="n">
-        <v>845.259103406818</v>
+        <v>670.7238075437801</v>
       </c>
       <c r="X44" t="n">
-        <v>845.259103406818</v>
+        <v>670.7238075437801</v>
       </c>
       <c r="Y44" t="n">
-        <v>444.3224303549081</v>
+        <v>670.7238075437801</v>
       </c>
     </row>
     <row r="45">
@@ -7703,22 +7703,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>539.069459580478</v>
+        <v>449.9728136869404</v>
       </c>
       <c r="C45" t="n">
-        <v>405.0743883294237</v>
+        <v>315.9777424358861</v>
       </c>
       <c r="D45" t="n">
-        <v>405.0743883294237</v>
+        <v>199.0805846552785</v>
       </c>
       <c r="E45" t="n">
-        <v>284.5815723217517</v>
+        <v>78.58776864760651</v>
       </c>
       <c r="F45" t="n">
-        <v>175.6216925042562</v>
+        <v>78.58776864760651</v>
       </c>
       <c r="G45" t="n">
-        <v>94.05389365052226</v>
+        <v>34.10125069041869</v>
       </c>
       <c r="H45" t="n">
         <v>34.10125069041869</v>
@@ -7730,49 +7730,49 @@
         <v>86.74187521125017</v>
       </c>
       <c r="K45" t="n">
-        <v>508.7448525051816</v>
+        <v>208.3657910062593</v>
       </c>
       <c r="L45" t="n">
-        <v>691.0438457828576</v>
+        <v>390.6647842839352</v>
       </c>
       <c r="M45" t="n">
-        <v>911.617704059656</v>
+        <v>611.2386425607338</v>
       </c>
       <c r="N45" t="n">
-        <v>1143.864997217919</v>
+        <v>843.4859357189972</v>
       </c>
       <c r="O45" t="n">
-        <v>1368.314937689856</v>
+        <v>1117.989444412413</v>
       </c>
       <c r="P45" t="n">
-        <v>1523.781144479428</v>
+        <v>1273.455651201985</v>
       </c>
       <c r="Q45" t="n">
-        <v>1607.488912018935</v>
+        <v>1695.458628495916</v>
       </c>
       <c r="R45" t="n">
         <v>1705.062534520935</v>
       </c>
       <c r="S45" t="n">
-        <v>1617.833198553365</v>
+        <v>1705.062534520935</v>
       </c>
       <c r="T45" t="n">
-        <v>1462.996425491437</v>
+        <v>1550.225761459006</v>
       </c>
       <c r="U45" t="n">
-        <v>1265.719147122872</v>
+        <v>1352.948483090442</v>
       </c>
       <c r="V45" t="n">
-        <v>1052.007620115906</v>
+        <v>1139.236956083475</v>
       </c>
       <c r="W45" t="n">
-        <v>838.7744518522346</v>
+        <v>926.0037878198042</v>
       </c>
       <c r="X45" t="n">
-        <v>838.7744518522346</v>
+        <v>749.677805958697</v>
       </c>
       <c r="Y45" t="n">
-        <v>679.3724922160646</v>
+        <v>590.2758463225271</v>
       </c>
     </row>
     <row r="46">
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>369.606799018008</v>
+        <v>665.8167195721785</v>
       </c>
       <c r="C46" t="n">
-        <v>198.7323765798274</v>
+        <v>665.8167195721785</v>
       </c>
       <c r="D46" t="n">
-        <v>198.7323765798274</v>
+        <v>506.3220748950885</v>
       </c>
       <c r="E46" t="n">
-        <v>198.7323765798274</v>
+        <v>506.3220748950885</v>
       </c>
       <c r="F46" t="n">
-        <v>34.10125069041869</v>
+        <v>341.6909490056797</v>
       </c>
       <c r="G46" t="n">
-        <v>34.10125069041869</v>
+        <v>175.3775949486048</v>
       </c>
       <c r="H46" t="n">
         <v>34.10125069041869</v>
@@ -7806,19 +7806,19 @@
         <v>34.10125069041869</v>
       </c>
       <c r="J46" t="n">
-        <v>48.11260810231351</v>
+        <v>113.1139717336499</v>
       </c>
       <c r="K46" t="n">
-        <v>309.365153586401</v>
+        <v>374.3665172177375</v>
       </c>
       <c r="L46" t="n">
-        <v>678.9077679031062</v>
+        <v>770.8031606337361</v>
       </c>
       <c r="M46" t="n">
-        <v>767.1672788095622</v>
+        <v>859.062671540192</v>
       </c>
       <c r="N46" t="n">
-        <v>856.5104738082782</v>
+        <v>948.4058665389081</v>
       </c>
       <c r="O46" t="n">
         <v>1245.881333411844</v>
@@ -7839,19 +7839,19 @@
         <v>1299.45573065473</v>
       </c>
       <c r="U46" t="n">
-        <v>1299.45573065473</v>
+        <v>1016.708694310893</v>
       </c>
       <c r="V46" t="n">
-        <v>1299.45573065473</v>
+        <v>1016.708694310893</v>
       </c>
       <c r="W46" t="n">
-        <v>1020.386066163604</v>
+        <v>1016.708694310893</v>
       </c>
       <c r="X46" t="n">
-        <v>782.0422040232877</v>
+        <v>890.5524181834138</v>
       </c>
       <c r="Y46" t="n">
-        <v>557.3065054120524</v>
+        <v>665.8167195721785</v>
       </c>
     </row>
   </sheetData>
@@ -8765,13 +8765,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>2.209379164537715</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J12" t="n">
         <v>246.129700984478</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>60.92747123911349</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8786,7 +8786,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>78.48355050861403</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -8847,25 +8847,25 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K13" t="n">
-        <v>208.3638319047618</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>317.1506174091142</v>
       </c>
       <c r="M13" t="n">
-        <v>337.1146125126014</v>
+        <v>115.5402028839231</v>
       </c>
       <c r="N13" t="n">
-        <v>335.3881832803894</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>318.2573327462026</v>
       </c>
       <c r="P13" t="n">
-        <v>199.2722799924517</v>
+        <v>263.5328115890082</v>
       </c>
       <c r="Q13" t="n">
         <v>127.5494547533709</v>
@@ -9005,7 +9005,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9014,22 +9014,22 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>175.1668915930335</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>220.7485801022563</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>60.92747123911352</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9087,13 +9087,13 @@
         <v>65.65794306195595</v>
       </c>
       <c r="K16" t="n">
-        <v>78.44535724624915</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>317.1506174091142</v>
       </c>
       <c r="M16" t="n">
-        <v>337.1146125126013</v>
+        <v>281.1277867873532</v>
       </c>
       <c r="N16" t="n">
         <v>335.3881832803894</v>
@@ -9102,10 +9102,10 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>263.5328115890082</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>127.5494547533709</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>320.7351106835872</v>
+        <v>192.4566590915276</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -9187,7 +9187,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,13 +9242,13 @@
         <v>2.209379164537715</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K18" t="n">
-        <v>384.4151729171199</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>323.127215863921</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9257,16 +9257,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>26.66427286733648</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>78.00609500352408</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9321,7 +9321,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K19" t="n">
         <v>208.3638319047618</v>
@@ -9330,19 +9330,19 @@
         <v>317.1506174091142</v>
       </c>
       <c r="M19" t="n">
-        <v>348.4508580952379</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
         <v>335.3881832803894</v>
       </c>
       <c r="O19" t="n">
-        <v>55.53717084865104</v>
+        <v>318.2573327462026</v>
       </c>
       <c r="P19" t="n">
         <v>263.5328115890082</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>20.07275313573256</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9409,7 +9409,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>17.20971146758797</v>
+        <v>237.4221987896406</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -9418,13 +9418,13 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>303.5253992160025</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>83.31291189394928</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9476,7 +9476,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>2.209379164537715</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J21" t="n">
         <v>246.129700984478</v>
@@ -9494,13 +9494,13 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>301.7505595861222</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>97.46810160608206</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>381.6625819227033</v>
       </c>
       <c r="R21" t="n">
         <v>88.85829947169823</v>
@@ -9558,22 +9558,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L22" t="n">
         <v>317.1506174091142</v>
       </c>
       <c r="M22" t="n">
-        <v>166.5450733490802</v>
+        <v>348.4508580952379</v>
       </c>
       <c r="N22" t="n">
-        <v>335.3881832803894</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>318.2573327462026</v>
+        <v>197.7179563137156</v>
       </c>
       <c r="P22" t="n">
         <v>263.5328115890082</v>
@@ -9637,19 +9637,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>199.9019702120467</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>448.4822485923574</v>
       </c>
       <c r="L23" t="n">
-        <v>391.5404477568132</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>352.5671692273313</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>32.55505341232151</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9719,7 +9719,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>235.2774965163018</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9731,16 +9731,16 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>268.8306506113066</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>465.3760110370707</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9874,13 +9874,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>233.9453570362706</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>357.992300742773</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -9892,13 +9892,13 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>418.6703696536931</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9953,13 +9953,13 @@
         <v>2.209379164537715</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>268.8306506113066</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>465.3760110370707</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>78.00609500352203</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10041,7 +10041,7 @@
         <v>317.1506174091142</v>
       </c>
       <c r="M28" t="n">
-        <v>348.4508580952382</v>
+        <v>348.4508580952379</v>
       </c>
       <c r="N28" t="n">
         <v>335.3881832803894</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10129,13 +10129,13 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>362.2238086283323</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>414.4388617681339</v>
+        <v>318.3076259885164</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10187,10 +10187,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>19.76545843403778</v>
+        <v>2.209379164537715</v>
       </c>
       <c r="J30" t="n">
-        <v>239.9729247677764</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10202,7 +10202,7 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>387.8193581394028</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -10211,10 +10211,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R30" t="n">
-        <v>88.85829947169823</v>
+        <v>78.00609500352203</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10351,13 +10351,13 @@
         <v>330.076592815888</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>446.5860775805779</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>352.5671692273313</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -10372,7 +10372,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>94.01890835324629</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10427,7 +10427,7 @@
         <v>2.209379164537715</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10436,7 +10436,7 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>399.6107065045189</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>334.5959551438585</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>78.00609500352203</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10588,7 +10588,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>192.4566590915258</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -10603,13 +10603,13 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>303.5253992160018</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>17.20971146758546</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10661,19 +10661,19 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>2.209379164537715</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>243.3771099900593</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>384.4151729171199</v>
       </c>
       <c r="L36" t="n">
-        <v>323.127215863921</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>284.4657360668276</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -10685,7 +10685,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>37.75541024593051</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>88.85829947169823</v>
@@ -10746,25 +10746,25 @@
         <v>65.65794306195595</v>
       </c>
       <c r="K37" t="n">
-        <v>208.3638319047618</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
         <v>317.1506174091142</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>348.4508580952379</v>
       </c>
       <c r="N37" t="n">
-        <v>227.9114816627488</v>
+        <v>335.3881832803894</v>
       </c>
       <c r="O37" t="n">
         <v>318.2573327462026</v>
       </c>
       <c r="P37" t="n">
-        <v>263.5328115890082</v>
+        <v>143.5185385342624</v>
       </c>
       <c r="Q37" t="n">
-        <v>127.5494547533709</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10834,16 +10834,16 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>231.1683508071073</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>89.56675987648057</v>
       </c>
       <c r="Q38" t="n">
-        <v>320.7351106835873</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -10898,7 +10898,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>2.209379164537715</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -10907,7 +10907,7 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>235.2774965163017</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10919,7 +10919,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>217.7214172468018</v>
       </c>
       <c r="Q39" t="n">
         <v>410.0708656603775</v>
@@ -10983,19 +10983,19 @@
         <v>65.65794306195595</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L40" t="n">
         <v>317.1506174091142</v>
       </c>
       <c r="M40" t="n">
-        <v>348.4508580952379</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>335.3881832803894</v>
+        <v>227.9114816627492</v>
       </c>
       <c r="O40" t="n">
-        <v>70.69360493808554</v>
+        <v>318.2573327462026</v>
       </c>
       <c r="P40" t="n">
         <v>263.5328115890082</v>
@@ -11138,19 +11138,19 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K42" t="n">
-        <v>153.7902353152342</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>242.125236380056</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>149.7857707108116</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -11220,19 +11220,19 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L43" t="n">
         <v>317.1506174091142</v>
       </c>
       <c r="M43" t="n">
-        <v>164.0672954116927</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>335.3881832803894</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>291.0916467873197</v>
       </c>
       <c r="P43" t="n">
         <v>263.5328115890082</v>
@@ -11378,7 +11378,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>303.4131934332548</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11390,16 +11390,16 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>21.20005805983732</v>
+        <v>71.75921787951305</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>341.712333085277</v>
       </c>
       <c r="R45" t="n">
-        <v>88.85829947169823</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11454,13 +11454,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K46" t="n">
         <v>208.3638319047618</v>
       </c>
       <c r="L46" t="n">
-        <v>289.9849314502319</v>
+        <v>317.1506174091142</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
@@ -11469,7 +11469,7 @@
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>318.2573327462026</v>
+        <v>225.4337037253642</v>
       </c>
       <c r="P46" t="n">
         <v>263.5328115890082</v>
@@ -23257,28 +23257,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>167.4350685521436</v>
+        <v>406.1189678678447</v>
       </c>
       <c r="C11" t="n">
-        <v>406.0233447798626</v>
+        <v>406.0233447798627</v>
       </c>
       <c r="D11" t="n">
-        <v>400.41929060787</v>
+        <v>400.4192906078702</v>
       </c>
       <c r="E11" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>416.8201079258493</v>
+        <v>416.8201079258495</v>
       </c>
       <c r="G11" t="n">
-        <v>402.5729276076336</v>
+        <v>402.5729276076338</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>286.6197530438303</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>5.758835338221985</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,13 +23308,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>86.8020359616258</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>210.9314267726901</v>
+        <v>176.5774458961828</v>
       </c>
       <c r="U11" t="n">
-        <v>254.324440930408</v>
+        <v>254.3244409304081</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23323,10 +23323,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>396.927306321391</v>
       </c>
     </row>
     <row r="12">
@@ -23336,7 +23336,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>138.9000023092308</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -23345,16 +23345,16 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>119.2878878475954</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>20.50187209089445</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>59.35311653050252</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -23393,7 +23393,7 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>116.0993631412507</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -23402,7 +23402,7 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>174.5627220424963</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>185.8227093301041</v>
       </c>
       <c r="C13" t="n">
-        <v>169.3824387139007</v>
+        <v>169.3824387139008</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>159.3017069803639</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.700578038795</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>164.6502205165043</v>
       </c>
       <c r="H13" t="n">
-        <v>139.8635808156043</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>87.28511935522941</v>
+        <v>87.28511935522955</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,13 +23466,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>168.3611507780027</v>
       </c>
       <c r="T13" t="n">
-        <v>168.0927953288509</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>279.9195659803985</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23481,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>222.4883416251229</v>
+        <v>222.4883416251231</v>
       </c>
     </row>
     <row r="14">
@@ -23494,28 +23494,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>406.1189678678446</v>
+        <v>406.1189678678447</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>400.41929060787</v>
+        <v>400.4192906078702</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>231.0838656235712</v>
+        <v>273.7401110314603</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>5.758835338221843</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>86.8020359616258</v>
+        <v>86.80203596162595</v>
       </c>
       <c r="T14" t="n">
-        <v>210.9314267726901</v>
+        <v>210.9314267726903</v>
       </c>
       <c r="U14" t="n">
-        <v>254.324440930408</v>
+        <v>254.3244409304081</v>
       </c>
       <c r="V14" t="n">
-        <v>346.3391791168841</v>
+        <v>346.3391791168843</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>379.9226978561833</v>
       </c>
       <c r="X14" t="n">
-        <v>396.636963852737</v>
+        <v>396.6369638527372</v>
       </c>
       <c r="Y14" t="n">
-        <v>396.9273063213908</v>
+        <v>396.927306321391</v>
       </c>
     </row>
     <row r="15">
@@ -23573,25 +23573,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>138.9000023092308</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>42.31538983027978</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>107.8702810193206</v>
       </c>
       <c r="G15" t="n">
-        <v>104.813694600883</v>
+        <v>104.8136946008831</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>59.35311653050266</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -23630,7 +23630,7 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>70.63878507087053</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -23655,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>169.3824387139007</v>
+        <v>169.3824387139008</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>157.8996982303192</v>
       </c>
       <c r="E16" t="n">
-        <v>159.3017069803637</v>
+        <v>159.3017069803639</v>
       </c>
       <c r="F16" t="n">
-        <v>162.9848146305146</v>
+        <v>162.9848146305148</v>
       </c>
       <c r="G16" t="n">
-        <v>164.6502205165041</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>139.8635808156043</v>
+        <v>139.8635808156044</v>
       </c>
       <c r="I16" t="n">
-        <v>87.28511935522941</v>
+        <v>87.28511935522955</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>42.70872534962579</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23709,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>279.9195659803985</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23718,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>235.9604235189136</v>
       </c>
       <c r="Y16" t="n">
-        <v>96.89609299587937</v>
+        <v>190.314483093177</v>
       </c>
     </row>
     <row r="17">
@@ -23731,28 +23731,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>406.1189678678446</v>
+        <v>406.1189678678447</v>
       </c>
       <c r="C17" t="n">
-        <v>406.0233447798626</v>
+        <v>406.0233447798627</v>
       </c>
       <c r="D17" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>410.1968133282724</v>
       </c>
       <c r="F17" t="n">
-        <v>416.8201079258493</v>
+        <v>416.8201079258495</v>
       </c>
       <c r="G17" t="n">
-        <v>402.5729276076336</v>
+        <v>402.5729276076338</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>5.758835338221843</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,22 +23782,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>86.8020359616258</v>
+        <v>86.80203596162595</v>
       </c>
       <c r="T17" t="n">
-        <v>210.9314267726901</v>
+        <v>210.9314267726903</v>
       </c>
       <c r="U17" t="n">
-        <v>122.4403036203274</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>101.7073502415924</v>
       </c>
       <c r="W17" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>396.6369638527372</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>90.13364047876097</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>157.8996982303191</v>
+        <v>39.21116908402486</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>159.3017069803639</v>
       </c>
       <c r="F19" t="n">
-        <v>162.9848146305146</v>
+        <v>162.9848146305148</v>
       </c>
       <c r="G19" t="n">
-        <v>164.6502205165041</v>
+        <v>164.6502205165043</v>
       </c>
       <c r="H19" t="n">
-        <v>139.8635808156043</v>
+        <v>139.8635808156044</v>
       </c>
       <c r="I19" t="n">
-        <v>87.28511935522941</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>42.70872534962594</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23946,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>279.9195659803987</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23968,28 +23968,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>406.1189678678446</v>
+        <v>406.1189678678447</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>410.1968133282722</v>
+        <v>410.1968133282724</v>
       </c>
       <c r="F20" t="n">
-        <v>318.5549599190057</v>
+        <v>416.8201079258495</v>
       </c>
       <c r="G20" t="n">
-        <v>402.5729276076336</v>
+        <v>402.5729276076338</v>
       </c>
       <c r="H20" t="n">
-        <v>286.6197530438301</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>5.758835338221843</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,22 +24019,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>86.80203596162595</v>
       </c>
       <c r="T20" t="n">
-        <v>210.9314267726901</v>
+        <v>210.9314267726903</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>254.3244409304081</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>346.3391791168843</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>303.7040388268998</v>
       </c>
       <c r="X20" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24129,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>116.6546428284981</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>164.6502205165041</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>139.8635808156043</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.28511935522941</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24183,16 +24183,16 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>279.9195659803987</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>271.1468876098734</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>276.2789678462145</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>161.2943619205502</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24208,22 +24208,22 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>406.0233447798626</v>
+        <v>406.0233447798627</v>
       </c>
       <c r="D23" t="n">
-        <v>94.73565627678147</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>402.5729276076338</v>
       </c>
       <c r="H23" t="n">
-        <v>286.6197530438301</v>
+        <v>286.6197530438303</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24259,7 +24259,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>210.9314267726903</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -24268,13 +24268,13 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>379.9226978561831</v>
+        <v>291.2436146853737</v>
       </c>
       <c r="X23" t="n">
-        <v>396.636963852737</v>
+        <v>396.6369638527372</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>396.927306321391</v>
       </c>
     </row>
     <row r="24">
@@ -24366,25 +24366,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>149.9862613951064</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>108.9429419314716</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>162.9848146305148</v>
       </c>
       <c r="G25" t="n">
-        <v>164.6502205165041</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>139.8635808156043</v>
+        <v>139.8635808156044</v>
       </c>
       <c r="I25" t="n">
-        <v>87.28511935522941</v>
+        <v>87.28511935522955</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>42.70872534962594</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24451,16 +24451,16 @@
         <v>400.41929060787</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F26" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>402.5729276076336</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>286.6197530438301</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24493,7 +24493,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>84.64986111444573</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -24508,10 +24508,10 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>359.0006982744556</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="27">
@@ -24603,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24612,13 +24612,13 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>149.9862613951063</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>164.6502205165041</v>
       </c>
       <c r="H28" t="n">
-        <v>139.8635808156043</v>
+        <v>77.75867814718416</v>
       </c>
       <c r="I28" t="n">
         <v>87.28511935522941</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>42.70872534962579</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24679,28 +24679,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D29" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>38.49028451692675</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>402.5729276076336</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>286.6197530438301</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>5.758835338221843</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24733,22 +24733,22 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>210.9314267726901</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>254.324440930408</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W29" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y29" t="n">
-        <v>53.76900105394208</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="30">
@@ -24837,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>133.4741311272173</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24849,16 +24849,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>151.6516672810958</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>139.8635808156043</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>87.28511935522941</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="32">
@@ -24916,13 +24916,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C32" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E32" t="n">
         <v>410.1968133282722</v>
@@ -24931,10 +24931,10 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G32" t="n">
-        <v>402.5729276076336</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>286.6197530438301</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24967,19 +24967,19 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>86.8020359616258</v>
       </c>
       <c r="T32" t="n">
-        <v>210.9314267726901</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>264.5747765921912</v>
       </c>
       <c r="W32" t="n">
-        <v>257.7909636053783</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -25074,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>149.9862613951065</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25089,7 +25089,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>164.6502205165041</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>139.8635808156043</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>42.70872534962579</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>114.0280583316657</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25156,25 +25156,25 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E35" t="n">
-        <v>57.70284747900581</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F35" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>402.5729276076336</v>
+        <v>351.9467474427842</v>
       </c>
       <c r="H35" t="n">
-        <v>286.6197530438301</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>5.758835338221843</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>86.8020359616258</v>
       </c>
       <c r="T35" t="n">
         <v>210.9314267726901</v>
@@ -25213,16 +25213,16 @@
         <v>254.324440930408</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X35" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="36">
@@ -25314,25 +25314,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C37" t="n">
-        <v>88.73163172871632</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E37" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G37" t="n">
-        <v>164.6502205165041</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>139.8635808156043</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>87.28511935522941</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,7 +25362,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>90.06178082707491</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="38">
@@ -25396,7 +25396,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D38" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>410.1968133282722</v>
@@ -25405,7 +25405,7 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G38" t="n">
-        <v>340.9886840257084</v>
+        <v>402.5729276076336</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -25453,13 +25453,13 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>379.9226978561831</v>
+        <v>321.8304385607371</v>
       </c>
       <c r="X38" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="39">
@@ -25551,25 +25551,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>164.6502205165041</v>
+        <v>132.2771448193695</v>
       </c>
       <c r="H40" t="n">
-        <v>139.8635808156043</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>87.28511935522941</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>42.70872534962579</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25614,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
-        <v>88.73163172871631</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="41">
@@ -25627,28 +25627,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D41" t="n">
-        <v>345.8610764989448</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E41" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G41" t="n">
-        <v>402.5729276076336</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>286.6197530438301</v>
+        <v>124.4749734558187</v>
       </c>
       <c r="I41" t="n">
-        <v>5.758835338221843</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,10 +25678,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>86.8020359616258</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>210.9314267726901</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>254.324440930408</v>
@@ -25696,7 +25696,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="42">
@@ -25706,7 +25706,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>32.69093378821091</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -25715,7 +25715,7 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -25724,7 +25724,7 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>59.35311653050252</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -25757,13 +25757,13 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>86.35704260789379</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>135.7114776028865</v>
       </c>
       <c r="U42" t="n">
-        <v>195.3045055848791</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -25785,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25803,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>139.8635808156043</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.28511935522941</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>42.70872534962579</v>
       </c>
       <c r="S43" t="n">
-        <v>168.3611507780025</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>233.1895850495404</v>
+        <v>117.7164777335477</v>
       </c>
       <c r="U43" t="n">
-        <v>224.9517796677898</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>271.1468876098733</v>
@@ -25854,7 +25854,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="44">
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C44" t="n">
         <v>406.0233447798626</v>
@@ -25876,16 +25876,16 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F44" t="n">
-        <v>416.8201079258493</v>
+        <v>194.895539586877</v>
       </c>
       <c r="G44" t="n">
-        <v>402.5729276076336</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>286.6197530438301</v>
       </c>
       <c r="I44" t="n">
-        <v>5.758835338221843</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25918,13 +25918,13 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>80.77520471793139</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>254.324440930408</v>
       </c>
       <c r="V44" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -25933,7 +25933,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="45">
@@ -25949,19 +25949,19 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>115.7281862028015</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G45" t="n">
-        <v>24.06157373568634</v>
+        <v>60.77204182326703</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>59.35311653050252</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -25994,7 +25994,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>86.35704260789379</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -26009,7 +26009,7 @@
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>174.5627220424961</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -26022,13 +26022,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
-        <v>0.2167605001018558</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>159.3017069803637</v>
@@ -26037,10 +26037,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>164.6502205165041</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>139.8635808156043</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>87.28511935522941</v>
@@ -26079,16 +26079,16 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>279.9195659803985</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>111.0657101527091</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>341389.6019427477</v>
+        <v>341389.6019427473</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>341389.6019427475</v>
+        <v>341389.6019427472</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>403767.8148469605</v>
+        <v>403767.8148469606</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>403767.814846961</v>
+        <v>403767.8148469607</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>466687.8807036179</v>
+        <v>466687.8807036176</v>
       </c>
     </row>
     <row r="10">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>403767.8148469605</v>
+        <v>403767.8148469606</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>341389.6019427477</v>
+        <v>341389.6019427475</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>341389.6019427476</v>
+        <v>341389.6019427477</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>550808.2431963631</v>
+      </c>
+      <c r="C2" t="n">
         <v>550808.2431963632</v>
-      </c>
-      <c r="C2" t="n">
-        <v>550808.2431963633</v>
       </c>
       <c r="D2" t="n">
         <v>550808.2431963633</v>
       </c>
       <c r="E2" t="n">
-        <v>302614.5212880736</v>
+        <v>302614.5212880734</v>
       </c>
       <c r="F2" t="n">
-        <v>302614.5212880735</v>
+        <v>302614.5212880733</v>
       </c>
       <c r="G2" t="n">
-        <v>341625.6643019136</v>
+        <v>341625.6643019139</v>
       </c>
       <c r="H2" t="n">
-        <v>341625.6643019141</v>
+        <v>341625.6643019135</v>
       </c>
       <c r="I2" t="n">
+        <v>380975.6804901542</v>
+      </c>
+      <c r="J2" t="n">
+        <v>380975.6804901542</v>
+      </c>
+      <c r="K2" t="n">
+        <v>380975.6804901542</v>
+      </c>
+      <c r="L2" t="n">
         <v>380975.6804901544</v>
-      </c>
-      <c r="J2" t="n">
-        <v>380975.6804901545</v>
-      </c>
-      <c r="K2" t="n">
-        <v>380975.6804901545</v>
-      </c>
-      <c r="L2" t="n">
-        <v>380975.6804901543</v>
       </c>
       <c r="M2" t="n">
         <v>341625.6643019136</v>
       </c>
       <c r="N2" t="n">
-        <v>341625.6643019138</v>
+        <v>341625.6643019137</v>
       </c>
       <c r="O2" t="n">
+        <v>302614.5212880735</v>
+      </c>
+      <c r="P2" t="n">
         <v>302614.5212880736</v>
-      </c>
-      <c r="P2" t="n">
-        <v>302614.5212880737</v>
       </c>
     </row>
     <row r="3">
@@ -26374,19 +26374,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>540570.8149886987</v>
+        <v>540570.8149886985</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>22201.42754683519</v>
+        <v>22201.42754683534</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>30619.4656837611</v>
+        <v>30619.46568376116</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26426,19 +26426,19 @@
         <v>358147.6449191825</v>
       </c>
       <c r="E4" t="n">
-        <v>21343.86335131767</v>
+        <v>21343.86335131747</v>
       </c>
       <c r="F4" t="n">
-        <v>21343.86335131765</v>
+        <v>21343.86335131747</v>
       </c>
       <c r="G4" t="n">
-        <v>42486.40111246905</v>
+        <v>42486.40111246902</v>
       </c>
       <c r="H4" t="n">
-        <v>42486.40111246926</v>
+        <v>42486.40111246903</v>
       </c>
       <c r="I4" t="n">
-        <v>63812.59508906284</v>
+        <v>63812.5950890627</v>
       </c>
       <c r="J4" t="n">
         <v>63812.59508906284</v>
@@ -26447,19 +26447,19 @@
         <v>63812.59508906284</v>
       </c>
       <c r="L4" t="n">
-        <v>63812.59508906282</v>
+        <v>63812.59508906284</v>
       </c>
       <c r="M4" t="n">
-        <v>42486.40111246904</v>
+        <v>42486.40111246906</v>
       </c>
       <c r="N4" t="n">
-        <v>42486.40111246905</v>
+        <v>42486.40111246908</v>
       </c>
       <c r="O4" t="n">
-        <v>21343.86335131767</v>
+        <v>21343.86335131765</v>
       </c>
       <c r="P4" t="n">
-        <v>21343.86335131767</v>
+        <v>21343.86335131766</v>
       </c>
     </row>
     <row r="5">
@@ -26478,19 +26478,19 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>37131.59695614576</v>
+        <v>37131.59695614574</v>
       </c>
       <c r="F5" t="n">
-        <v>37131.59695614575</v>
+        <v>37131.59695614574</v>
       </c>
       <c r="G5" t="n">
-        <v>42056.51730876476</v>
+        <v>42056.51730876478</v>
       </c>
       <c r="H5" t="n">
-        <v>42056.5173087648</v>
+        <v>42056.51730876478</v>
       </c>
       <c r="I5" t="n">
-        <v>49057.33151137638</v>
+        <v>49057.33151137637</v>
       </c>
       <c r="J5" t="n">
         <v>49057.33151137638</v>
@@ -26508,7 +26508,7 @@
         <v>42056.51730876476</v>
       </c>
       <c r="O5" t="n">
-        <v>37131.59695614576</v>
+        <v>37131.59695614575</v>
       </c>
       <c r="P5" t="n">
         <v>37131.59695614576</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>159032.9982771807</v>
+        <v>159024.1985915512</v>
       </c>
       <c r="C6" t="n">
-        <v>159032.9982771808</v>
+        <v>159024.1985915513</v>
       </c>
       <c r="D6" t="n">
-        <v>159032.9982771808</v>
+        <v>159024.1985915514</v>
       </c>
       <c r="E6" t="n">
-        <v>-296431.7540080885</v>
+        <v>-297170.5352287421</v>
       </c>
       <c r="F6" t="n">
-        <v>244139.0609806101</v>
+        <v>243400.2797599563</v>
       </c>
       <c r="G6" t="n">
-        <v>234881.3183338447</v>
+        <v>234257.275769114</v>
       </c>
       <c r="H6" t="n">
-        <v>257082.74588068</v>
+        <v>256458.703315949</v>
       </c>
       <c r="I6" t="n">
-        <v>237486.2882059541</v>
+        <v>236977.9809829534</v>
       </c>
       <c r="J6" t="n">
-        <v>268105.7538897153</v>
+        <v>267597.4466667144</v>
       </c>
       <c r="K6" t="n">
-        <v>268105.7538897154</v>
+        <v>267597.4466667144</v>
       </c>
       <c r="L6" t="n">
-        <v>268105.7538897151</v>
+        <v>267597.4466667146</v>
       </c>
       <c r="M6" t="n">
-        <v>179550.2321304455</v>
+        <v>178926.1895657148</v>
       </c>
       <c r="N6" t="n">
-        <v>257082.74588068</v>
+        <v>256458.7033159492</v>
       </c>
       <c r="O6" t="n">
-        <v>244139.0609806102</v>
+        <v>243400.2797599563</v>
       </c>
       <c r="P6" t="n">
-        <v>244139.0609806103</v>
+        <v>243400.2797599564</v>
       </c>
     </row>
   </sheetData>
@@ -26798,16 +26798,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>426.2656336302337</v>
+        <v>426.2656336302336</v>
       </c>
       <c r="F4" t="n">
         <v>426.2656336302336</v>
       </c>
       <c r="G4" t="n">
-        <v>507.2676131140988</v>
+        <v>507.2676131140994</v>
       </c>
       <c r="H4" t="n">
-        <v>507.2676131140996</v>
+        <v>507.2676131140994</v>
       </c>
       <c r="I4" t="n">
         <v>622.4125835517901</v>
@@ -26822,13 +26822,13 @@
         <v>622.4125835517901</v>
       </c>
       <c r="M4" t="n">
-        <v>507.2676131140988</v>
+        <v>507.2676131140989</v>
       </c>
       <c r="N4" t="n">
-        <v>507.2676131140988</v>
+        <v>507.2676131140989</v>
       </c>
       <c r="O4" t="n">
-        <v>426.2656336302337</v>
+        <v>426.2656336302336</v>
       </c>
       <c r="P4" t="n">
         <v>426.2656336302337</v>
@@ -27020,19 +27020,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>426.2656336302338</v>
+        <v>426.2656336302337</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>81.00197948386517</v>
+        <v>81.00197948386574</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>115.1449704376905</v>
+        <v>115.1449704376907</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>426.2656336302338</v>
+        <v>426.2656336302337</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>81.00197948386517</v>
+        <v>81.00197948386574</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -28304,19 +28304,19 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>-9.580490013721329e-14</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>-1.461687913563635e-13</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>-1.461687913563635e-13</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>-1.461687913563635e-13</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>-1.461687913563635e-13</v>
       </c>
     </row>
     <row r="14">
@@ -28395,7 +28395,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>-1.306044383524904e-13</v>
       </c>
     </row>
     <row r="15">
@@ -28405,25 +28405,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>-1.461687913563635e-13</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>-1.461687913563635e-13</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>-1.461687913563635e-13</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>-1.461687913563635e-13</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>-1.461687913563635e-13</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>-1.461687913563635e-13</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>-1.461687913563635e-13</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -28456,25 +28456,25 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>-1.461687913563635e-13</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>-1.461687913563635e-13</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>-1.461687913563635e-13</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>-1.461687913563635e-13</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>-1.461687913563635e-13</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>-1.461687913563635e-13</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>-1.461687913563635e-13</v>
       </c>
     </row>
     <row r="16">
@@ -28484,28 +28484,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>-1.461687913563635e-13</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>-1.461687913563635e-13</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>-1.461687913563635e-13</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>-1.461687913563635e-13</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>-1.461687913563635e-13</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>-1.461687913563635e-13</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>-1.461687913563635e-13</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>-1.461687913563635e-13</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -28532,28 +28532,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>-1.461687913563635e-13</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>-1.461687913563635e-13</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>-1.461687913563635e-13</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>-1.461687913563635e-13</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>-1.461687913563635e-13</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>-1.461687913563635e-13</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>-1.461687913563635e-13</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>-1.461687913563635e-13</v>
       </c>
     </row>
     <row r="17">
@@ -28632,7 +28632,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>-8.461361504222868e-14</v>
       </c>
     </row>
     <row r="18">
@@ -28642,25 +28642,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>-1.461687913563635e-13</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>-1.461687913563635e-13</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>-1.461687913563635e-13</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>-1.461687913563635e-13</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>-1.461687913563635e-13</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>-1.461687913563635e-13</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>-1.461687913563635e-13</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -28693,25 +28693,25 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>-1.461687913563635e-13</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>-1.461687913563635e-13</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>-1.461687913563635e-13</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>-1.461687913563635e-13</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>-1.461687913563635e-13</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>-1.461687913563635e-13</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>-1.461687913563635e-13</v>
       </c>
     </row>
     <row r="19">
@@ -28721,28 +28721,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>-1.461687913563635e-13</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>-1.461687913563635e-13</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>-1.461687913563635e-13</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>-1.461687913563635e-13</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>-1.461687913563635e-13</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>-1.461687913563635e-13</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>-1.461687913563635e-13</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>-1.461687913563635e-13</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -28769,28 +28769,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>-1.461687913563635e-13</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>-1.461687913563635e-13</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>-1.461687913563635e-13</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>-1.461687913563635e-13</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>-1.461687913563635e-13</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>-1.461687913563635e-13</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>-1.461687913563635e-13</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>-1.461687913563635e-13</v>
       </c>
     </row>
     <row r="20">
@@ -28800,28 +28800,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>-1.461687913563635e-13</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>-1.461687913563635e-13</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>-1.461687913563635e-13</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>-1.461687913563635e-13</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>-1.461687913563635e-13</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>-1.461687913563635e-13</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>-1.461687913563635e-13</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>-1.461687913563635e-13</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28851,25 +28851,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>-1.461687913563635e-13</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>-1.461687913563635e-13</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>-1.461687913563635e-13</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>-1.461687913563635e-13</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>-1.461687913563635e-13</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>-1.461687913563635e-13</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>-1.461687913563635e-13</v>
       </c>
     </row>
     <row r="21">
@@ -28879,25 +28879,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>-1.461687913563635e-13</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>-1.461687913563635e-13</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>-1.461687913563635e-13</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>-1.461687913563635e-13</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>-1.461687913563635e-13</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>-1.461687913563635e-13</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>-1.461687913563635e-13</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -28930,25 +28930,25 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>-1.461687913563635e-13</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>-1.461687913563635e-13</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>-1.461687913563635e-13</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>-1.461687913563635e-13</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>-1.461687913563635e-13</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>-1.461687913563635e-13</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>-1.461687913563635e-13</v>
       </c>
     </row>
     <row r="22">
@@ -28958,28 +28958,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>-1.461687913563635e-13</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>-1.461687913563635e-13</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>-1.461687913563635e-13</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>-1.461687913563635e-13</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>-1.461687913563635e-13</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>-1.461687913563635e-13</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>-1.461687913563635e-13</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>-1.461687913563635e-13</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -29006,28 +29006,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>-1.461687913563635e-13</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>-1.461687913563635e-13</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>-1.461687913563635e-13</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>-1.461687913563635e-13</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>-1.461687913563635e-13</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>-1.461687913563635e-13</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>-1.461687913563635e-13</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>-1.461687913563635e-13</v>
       </c>
     </row>
     <row r="23">
@@ -35427,7 +35427,7 @@
         <v>255.2573699964912</v>
       </c>
       <c r="P11" t="n">
-        <v>203.742213898097</v>
+        <v>203.7422138980972</v>
       </c>
       <c r="Q11" t="n">
         <v>133.2948848861407</v>
@@ -35485,13 +35485,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>17.55607926950006</v>
       </c>
       <c r="J12" t="n">
         <v>299.3020489853179</v>
       </c>
       <c r="K12" t="n">
-        <v>122.8524401969789</v>
+        <v>183.7799114360924</v>
       </c>
       <c r="L12" t="n">
         <v>184.1403972501778</v>
@@ -35506,7 +35506,7 @@
         <v>205.5170535279774</v>
       </c>
       <c r="P12" t="n">
-        <v>235.5201230233335</v>
+        <v>157.0365725147194</v>
       </c>
       <c r="Q12" t="n">
         <v>84.55330054495676</v>
@@ -35567,25 +35567,25 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>14.15288627464123</v>
+        <v>79.81082933659718</v>
       </c>
       <c r="K13" t="n">
-        <v>263.8914600849369</v>
+        <v>55.52762818017517</v>
       </c>
       <c r="L13" t="n">
-        <v>83.29043654643996</v>
+        <v>400.4410539555541</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2656336302337</v>
+        <v>204.6912240015554</v>
       </c>
       <c r="N13" t="n">
-        <v>425.633834794244</v>
+        <v>90.24565151385458</v>
       </c>
       <c r="O13" t="n">
-        <v>75.04656584325841</v>
+        <v>393.3038985894609</v>
       </c>
       <c r="P13" t="n">
-        <v>255.6895026657609</v>
+        <v>319.9500342623174</v>
       </c>
       <c r="Q13" t="n">
         <v>143.86936079737</v>
@@ -35725,7 +35725,7 @@
         <v>17.55607926950006</v>
       </c>
       <c r="J15" t="n">
-        <v>53.17234800083988</v>
+        <v>299.3020489853179</v>
       </c>
       <c r="K15" t="n">
         <v>122.8524401969789</v>
@@ -35734,22 +35734,22 @@
         <v>184.1403972501778</v>
       </c>
       <c r="M15" t="n">
-        <v>397.9687686403047</v>
+        <v>222.8018770472712</v>
       </c>
       <c r="N15" t="n">
         <v>234.5932254123873</v>
       </c>
       <c r="O15" t="n">
-        <v>426.2656336302336</v>
+        <v>205.5170535279774</v>
       </c>
       <c r="P15" t="n">
         <v>157.0365725147194</v>
       </c>
       <c r="Q15" t="n">
-        <v>84.55330054495676</v>
+        <v>145.4807717840703</v>
       </c>
       <c r="R15" t="n">
-        <v>9.700915176786218</v>
+        <v>98.55921464848444</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35807,13 +35807,13 @@
         <v>79.81082933659718</v>
       </c>
       <c r="K16" t="n">
-        <v>133.9729854264243</v>
+        <v>263.8914600849369</v>
       </c>
       <c r="L16" t="n">
-        <v>83.29043654643996</v>
+        <v>400.4410539555541</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2656336302336</v>
+        <v>370.2788079049855</v>
       </c>
       <c r="N16" t="n">
         <v>425.633834794244</v>
@@ -35822,10 +35822,10 @@
         <v>75.04656584325841</v>
       </c>
       <c r="P16" t="n">
-        <v>319.9500342623174</v>
+        <v>56.41722267330923</v>
       </c>
       <c r="Q16" t="n">
-        <v>143.86936079737</v>
+        <v>16.31990604399918</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>422.9366860202113</v>
+        <v>294.6582344281517</v>
       </c>
       <c r="K17" t="n">
         <v>173.9303349594327</v>
@@ -35907,7 +35907,7 @@
         <v>133.2948848861407</v>
       </c>
       <c r="R17" t="n">
-        <v>42.5964891336718</v>
+        <v>170.8749407257335</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,13 +35962,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>53.17234800083988</v>
+        <v>299.3020489853179</v>
       </c>
       <c r="K18" t="n">
-        <v>507.2676131140988</v>
+        <v>122.8524401969789</v>
       </c>
       <c r="L18" t="n">
-        <v>507.2676131140988</v>
+        <v>184.1403972501778</v>
       </c>
       <c r="M18" t="n">
         <v>222.8018770472712</v>
@@ -35977,16 +35977,16 @@
         <v>234.5932254123873</v>
       </c>
       <c r="O18" t="n">
-        <v>232.1813263953138</v>
+        <v>205.5170535279774</v>
       </c>
       <c r="P18" t="n">
         <v>157.0365725147194</v>
       </c>
       <c r="Q18" t="n">
-        <v>84.55330054495676</v>
+        <v>494.6241662053342</v>
       </c>
       <c r="R18" t="n">
-        <v>9.700915176786218</v>
+        <v>87.70701018031031</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>14.15288627464123</v>
+        <v>79.81082933659718</v>
       </c>
       <c r="K19" t="n">
         <v>263.8914600849369</v>
@@ -36050,19 +36050,19 @@
         <v>400.4410539555541</v>
       </c>
       <c r="M19" t="n">
-        <v>437.6018792128702</v>
+        <v>89.1510211176323</v>
       </c>
       <c r="N19" t="n">
         <v>425.633834794244</v>
       </c>
       <c r="O19" t="n">
-        <v>130.5837366919095</v>
+        <v>393.3038985894609</v>
       </c>
       <c r="P19" t="n">
         <v>319.9500342623174</v>
       </c>
       <c r="Q19" t="n">
-        <v>16.31990604399918</v>
+        <v>36.39265917973174</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36129,7 +36129,7 @@
         <v>230.8721357949769</v>
       </c>
       <c r="M20" t="n">
-        <v>287.0551257920468</v>
+        <v>507.2676131140994</v>
       </c>
       <c r="N20" t="n">
         <v>276.0992623069915</v>
@@ -36138,13 +36138,13 @@
         <v>255.2573699964912</v>
       </c>
       <c r="P20" t="n">
-        <v>507.2676131140996</v>
+        <v>203.742213898097</v>
       </c>
       <c r="Q20" t="n">
         <v>133.2948848861407</v>
       </c>
       <c r="R20" t="n">
-        <v>42.5964891336718</v>
+        <v>125.9094010276211</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>17.55607926950006</v>
       </c>
       <c r="J21" t="n">
         <v>299.3020489853179</v>
@@ -36214,13 +36214,13 @@
         <v>234.5932254123873</v>
       </c>
       <c r="O21" t="n">
-        <v>507.2676131140996</v>
+        <v>205.5170535279774</v>
       </c>
       <c r="P21" t="n">
-        <v>254.5046741208015</v>
+        <v>157.0365725147194</v>
       </c>
       <c r="Q21" t="n">
-        <v>84.55330054495676</v>
+        <v>466.21588246766</v>
       </c>
       <c r="R21" t="n">
         <v>98.55921464848444</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>14.15288627464123</v>
+        <v>79.81082933659718</v>
       </c>
       <c r="K22" t="n">
-        <v>55.52762818017517</v>
+        <v>263.8914600849369</v>
       </c>
       <c r="L22" t="n">
         <v>400.4410539555541</v>
       </c>
       <c r="M22" t="n">
-        <v>255.6960944667125</v>
+        <v>437.6018792128702</v>
       </c>
       <c r="N22" t="n">
-        <v>425.633834794244</v>
+        <v>90.24565151385458</v>
       </c>
       <c r="O22" t="n">
-        <v>393.3038985894609</v>
+        <v>272.764522156974</v>
       </c>
       <c r="P22" t="n">
         <v>319.9500342623174</v>
@@ -36357,19 +36357,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>102.2015753366241</v>
+        <v>302.1035455486708</v>
       </c>
       <c r="K23" t="n">
-        <v>173.9303349594327</v>
+        <v>622.4125835517901</v>
       </c>
       <c r="L23" t="n">
-        <v>622.4125835517901</v>
+        <v>230.8721357949769</v>
       </c>
       <c r="M23" t="n">
-        <v>622.4125835517901</v>
+        <v>269.8454143244588</v>
       </c>
       <c r="N23" t="n">
-        <v>308.654315719313</v>
+        <v>276.0992623069915</v>
       </c>
       <c r="O23" t="n">
         <v>255.2573699964912</v>
@@ -36381,7 +36381,7 @@
         <v>133.2948848861407</v>
       </c>
       <c r="R23" t="n">
-        <v>42.5964891336718</v>
+        <v>170.8749407257335</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,7 +36439,7 @@
         <v>53.17234800083988</v>
       </c>
       <c r="K24" t="n">
-        <v>122.8524401969789</v>
+        <v>358.1299367132806</v>
       </c>
       <c r="L24" t="n">
         <v>184.1403972501778</v>
@@ -36451,16 +36451,16 @@
         <v>234.5932254123873</v>
       </c>
       <c r="O24" t="n">
-        <v>474.347704139284</v>
+        <v>205.5170535279774</v>
       </c>
       <c r="P24" t="n">
-        <v>622.4125835517901</v>
+        <v>157.0365725147194</v>
       </c>
       <c r="Q24" t="n">
-        <v>84.55330054495676</v>
+        <v>494.6241662053342</v>
       </c>
       <c r="R24" t="n">
-        <v>9.700915176786218</v>
+        <v>98.55921464848444</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36594,13 +36594,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>102.2015753366241</v>
+        <v>336.1469323728946</v>
       </c>
       <c r="K26" t="n">
         <v>173.9303349594327</v>
       </c>
       <c r="L26" t="n">
-        <v>588.86443653775</v>
+        <v>230.8721357949769</v>
       </c>
       <c r="M26" t="n">
         <v>269.8454143244588</v>
@@ -36612,13 +36612,13 @@
         <v>255.2573699964912</v>
       </c>
       <c r="P26" t="n">
-        <v>622.4125835517901</v>
+        <v>203.742213898097</v>
       </c>
       <c r="Q26" t="n">
-        <v>133.2948848861407</v>
+        <v>547.7337466542746</v>
       </c>
       <c r="R26" t="n">
-        <v>42.5964891336718</v>
+        <v>170.8749407257335</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,13 +36673,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>53.17234800083988</v>
+        <v>299.3020489853179</v>
       </c>
       <c r="K27" t="n">
         <v>122.8524401969789</v>
       </c>
       <c r="L27" t="n">
-        <v>452.9710478614844</v>
+        <v>184.1403972501778</v>
       </c>
       <c r="M27" t="n">
         <v>222.8018770472712</v>
@@ -36691,13 +36691,13 @@
         <v>205.5170535279774</v>
       </c>
       <c r="P27" t="n">
-        <v>622.4125835517901</v>
+        <v>157.0365725147194</v>
       </c>
       <c r="Q27" t="n">
-        <v>84.55330054495676</v>
+        <v>494.6241662053342</v>
       </c>
       <c r="R27" t="n">
-        <v>9.700915176786218</v>
+        <v>87.70701018030825</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36761,7 +36761,7 @@
         <v>400.4410539555541</v>
       </c>
       <c r="M28" t="n">
-        <v>437.6018792128705</v>
+        <v>437.6018792128702</v>
       </c>
       <c r="N28" t="n">
         <v>425.633834794244</v>
@@ -36831,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>102.2015753366241</v>
+        <v>432.2781681525121</v>
       </c>
       <c r="K29" t="n">
         <v>173.9303349594327</v>
@@ -36849,13 +36849,13 @@
         <v>255.2573699964912</v>
       </c>
       <c r="P29" t="n">
-        <v>565.9660225264294</v>
+        <v>203.742213898097</v>
       </c>
       <c r="Q29" t="n">
-        <v>547.7337466542746</v>
+        <v>451.6025108746571</v>
       </c>
       <c r="R29" t="n">
-        <v>42.5964891336718</v>
+        <v>170.8749407257335</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,10 +36907,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>17.55607926950006</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>293.1452727686163</v>
+        <v>299.3020489853179</v>
       </c>
       <c r="K30" t="n">
         <v>122.8524401969789</v>
@@ -36922,7 +36922,7 @@
         <v>222.8018770472712</v>
       </c>
       <c r="N30" t="n">
-        <v>622.4125835517901</v>
+        <v>234.5932254123873</v>
       </c>
       <c r="O30" t="n">
         <v>205.5170535279774</v>
@@ -36931,10 +36931,10 @@
         <v>157.0365725147194</v>
       </c>
       <c r="Q30" t="n">
-        <v>84.55330054495676</v>
+        <v>494.6241662053342</v>
       </c>
       <c r="R30" t="n">
-        <v>98.55921464848444</v>
+        <v>87.70701018030825</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37071,13 +37071,13 @@
         <v>432.2781681525121</v>
       </c>
       <c r="K32" t="n">
-        <v>173.9303349594327</v>
+        <v>620.5164125400106</v>
       </c>
       <c r="L32" t="n">
         <v>230.8721357949769</v>
       </c>
       <c r="M32" t="n">
-        <v>622.4125835517901</v>
+        <v>269.8454143244588</v>
       </c>
       <c r="N32" t="n">
         <v>276.0992623069915</v>
@@ -37092,7 +37092,7 @@
         <v>133.2948848861407</v>
       </c>
       <c r="R32" t="n">
-        <v>136.6153974869181</v>
+        <v>42.5964891336718</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>53.17234800083988</v>
+        <v>299.3020489853179</v>
       </c>
       <c r="K33" t="n">
         <v>122.8524401969789</v>
@@ -37156,7 +37156,7 @@
         <v>184.1403972501778</v>
       </c>
       <c r="M33" t="n">
-        <v>622.4125835517901</v>
+        <v>222.8018770472712</v>
       </c>
       <c r="N33" t="n">
         <v>234.5932254123873</v>
@@ -37165,13 +37165,13 @@
         <v>205.5170535279774</v>
       </c>
       <c r="P33" t="n">
-        <v>491.6325276585779</v>
+        <v>157.0365725147194</v>
       </c>
       <c r="Q33" t="n">
-        <v>84.55330054495676</v>
+        <v>494.6241662053342</v>
       </c>
       <c r="R33" t="n">
-        <v>9.700915176786218</v>
+        <v>87.70701018030825</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37244,7 +37244,7 @@
         <v>393.3038985894609</v>
       </c>
       <c r="P34" t="n">
-        <v>319.9500342623178</v>
+        <v>319.9500342623174</v>
       </c>
       <c r="Q34" t="n">
         <v>143.86936079737</v>
@@ -37308,7 +37308,7 @@
         <v>102.2015753366241</v>
       </c>
       <c r="K35" t="n">
-        <v>173.9303349594327</v>
+        <v>366.3869940509584</v>
       </c>
       <c r="L35" t="n">
         <v>230.8721357949769</v>
@@ -37323,13 +37323,13 @@
         <v>255.2573699964912</v>
       </c>
       <c r="P35" t="n">
-        <v>507.2676131140988</v>
+        <v>203.742213898097</v>
       </c>
       <c r="Q35" t="n">
-        <v>150.5045963537262</v>
+        <v>133.2948848861407</v>
       </c>
       <c r="R35" t="n">
-        <v>42.5964891336718</v>
+        <v>170.8749407257335</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,19 +37381,19 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>17.55607926950006</v>
       </c>
       <c r="J36" t="n">
-        <v>53.17234800083988</v>
+        <v>296.5494579908992</v>
       </c>
       <c r="K36" t="n">
-        <v>122.8524401969789</v>
+        <v>507.2676131140989</v>
       </c>
       <c r="L36" t="n">
-        <v>507.2676131140988</v>
+        <v>184.1403972501778</v>
       </c>
       <c r="M36" t="n">
-        <v>507.2676131140988</v>
+        <v>222.8018770472712</v>
       </c>
       <c r="N36" t="n">
         <v>234.5932254123873</v>
@@ -37405,7 +37405,7 @@
         <v>157.0365725147194</v>
       </c>
       <c r="Q36" t="n">
-        <v>122.3087107908873</v>
+        <v>84.55330054495676</v>
       </c>
       <c r="R36" t="n">
         <v>98.55921464848444</v>
@@ -37466,25 +37466,25 @@
         <v>79.81082933659718</v>
       </c>
       <c r="K37" t="n">
-        <v>263.8914600849369</v>
+        <v>55.52762818017517</v>
       </c>
       <c r="L37" t="n">
         <v>400.4410539555541</v>
       </c>
       <c r="M37" t="n">
-        <v>89.1510211176323</v>
+        <v>437.6018792128702</v>
       </c>
       <c r="N37" t="n">
-        <v>318.1571331766033</v>
+        <v>425.633834794244</v>
       </c>
       <c r="O37" t="n">
         <v>393.3038985894609</v>
       </c>
       <c r="P37" t="n">
-        <v>319.9500342623174</v>
+        <v>199.9357612075716</v>
       </c>
       <c r="Q37" t="n">
-        <v>143.86936079737</v>
+        <v>16.31990604399918</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37554,16 +37554,16 @@
         <v>269.8454143244588</v>
       </c>
       <c r="N38" t="n">
-        <v>276.0992623069915</v>
+        <v>507.2676131140989</v>
       </c>
       <c r="O38" t="n">
         <v>255.2573699964912</v>
       </c>
       <c r="P38" t="n">
-        <v>203.742213898097</v>
+        <v>293.3089737745776</v>
       </c>
       <c r="Q38" t="n">
-        <v>454.029995569728</v>
+        <v>133.2948848861407</v>
       </c>
       <c r="R38" t="n">
         <v>42.5964891336718</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>17.55607926950006</v>
       </c>
       <c r="J39" t="n">
         <v>53.17234800083988</v>
@@ -37627,7 +37627,7 @@
         <v>122.8524401969789</v>
       </c>
       <c r="L39" t="n">
-        <v>419.4178937664795</v>
+        <v>184.1403972501778</v>
       </c>
       <c r="M39" t="n">
         <v>222.8018770472712</v>
@@ -37639,7 +37639,7 @@
         <v>205.5170535279774</v>
       </c>
       <c r="P39" t="n">
-        <v>157.0365725147194</v>
+        <v>374.7579897615212</v>
       </c>
       <c r="Q39" t="n">
         <v>494.6241662053342</v>
@@ -37703,19 +37703,19 @@
         <v>79.81082933659718</v>
       </c>
       <c r="K40" t="n">
-        <v>55.52762818017517</v>
+        <v>263.8914600849369</v>
       </c>
       <c r="L40" t="n">
         <v>400.4410539555541</v>
       </c>
       <c r="M40" t="n">
-        <v>437.6018792128702</v>
+        <v>89.1510211176323</v>
       </c>
       <c r="N40" t="n">
-        <v>425.633834794244</v>
+        <v>318.1571331766037</v>
       </c>
       <c r="O40" t="n">
-        <v>145.7401707813439</v>
+        <v>393.3038985894609</v>
       </c>
       <c r="P40" t="n">
         <v>319.9500342623174</v>
@@ -37797,7 +37797,7 @@
         <v>255.2573699964912</v>
       </c>
       <c r="P41" t="n">
-        <v>203.7422138980972</v>
+        <v>203.742213898097</v>
       </c>
       <c r="Q41" t="n">
         <v>133.2948848861407</v>
@@ -37858,19 +37858,19 @@
         <v>17.55607926950006</v>
       </c>
       <c r="J42" t="n">
-        <v>53.17234800083988</v>
+        <v>299.3020489853179</v>
       </c>
       <c r="K42" t="n">
-        <v>276.6426755122131</v>
+        <v>122.8524401969789</v>
       </c>
       <c r="L42" t="n">
-        <v>426.2656336302337</v>
+        <v>184.1403972501778</v>
       </c>
       <c r="M42" t="n">
         <v>222.8018770472712</v>
       </c>
       <c r="N42" t="n">
-        <v>234.5932254123873</v>
+        <v>384.3789961231989</v>
       </c>
       <c r="O42" t="n">
         <v>205.5170535279774</v>
@@ -37940,19 +37940,19 @@
         <v>14.15288627464123</v>
       </c>
       <c r="K43" t="n">
-        <v>55.52762818017517</v>
+        <v>263.8914600849369</v>
       </c>
       <c r="L43" t="n">
         <v>400.4410539555541</v>
       </c>
       <c r="M43" t="n">
-        <v>253.218316529325</v>
+        <v>89.1510211176323</v>
       </c>
       <c r="N43" t="n">
-        <v>425.633834794244</v>
+        <v>90.24565151385458</v>
       </c>
       <c r="O43" t="n">
-        <v>75.04656584325841</v>
+        <v>366.1382126305782</v>
       </c>
       <c r="P43" t="n">
         <v>319.9500342623174</v>
@@ -38098,7 +38098,7 @@
         <v>53.17234800083988</v>
       </c>
       <c r="K45" t="n">
-        <v>426.2656336302337</v>
+        <v>122.8524401969789</v>
       </c>
       <c r="L45" t="n">
         <v>184.1403972501778</v>
@@ -38110,16 +38110,16 @@
         <v>234.5932254123873</v>
       </c>
       <c r="O45" t="n">
-        <v>226.7171115878147</v>
+        <v>277.2762714074904</v>
       </c>
       <c r="P45" t="n">
         <v>157.0365725147194</v>
       </c>
       <c r="Q45" t="n">
-        <v>84.55330054495676</v>
+        <v>426.2656336302337</v>
       </c>
       <c r="R45" t="n">
-        <v>98.55921464848444</v>
+        <v>9.700915176786218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,13 +38174,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>14.15288627464123</v>
+        <v>79.81082933659718</v>
       </c>
       <c r="K46" t="n">
         <v>263.8914600849369</v>
       </c>
       <c r="L46" t="n">
-        <v>373.2753679966719</v>
+        <v>400.4410539555541</v>
       </c>
       <c r="M46" t="n">
         <v>89.1510211176323</v>
@@ -38189,7 +38189,7 @@
         <v>90.24565151385458</v>
       </c>
       <c r="O46" t="n">
-        <v>393.3038985894609</v>
+        <v>300.4802695686226</v>
       </c>
       <c r="P46" t="n">
         <v>319.9500342623174</v>
